--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F199D1-2BF0-4F10-A9F6-626365AA6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60655B5F-02D5-4CB6-917F-F4C5B451943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>IC</t>
   </si>
@@ -129,9 +140,6 @@
     <t>VBUS</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>MT41J128M16JT-125</t>
   </si>
   <si>
@@ -139,6 +147,84 @@
   </si>
   <si>
     <t>VDDQ</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>JTAG_DEBUGGUER</t>
+  </si>
+  <si>
+    <t>USB CONN</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>TLP2362</t>
+  </si>
+  <si>
+    <t>Octoupleur</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>2.7 - 5.5V</t>
+  </si>
+  <si>
+    <t>ADUM3160BRWZ-RL</t>
+  </si>
+  <si>
+    <t>USB isolator</t>
+  </si>
+  <si>
+    <t>VDD2/VBUS2</t>
+  </si>
+  <si>
+    <t>VBUS1</t>
+  </si>
+  <si>
+    <t>PIN1</t>
+  </si>
+  <si>
+    <t>VDD1</t>
+  </si>
+  <si>
+    <t>VREF-UART</t>
+  </si>
+  <si>
+    <t>VREFDQ</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>VREFCA</t>
+  </si>
+  <si>
+    <t>590BD-BDG</t>
+  </si>
+  <si>
+    <t>xtal 125MHz</t>
+  </si>
+  <si>
+    <t>CDCE62005RGZT</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>VCC_IN_XX</t>
+  </si>
+  <si>
+    <t>PLL</t>
+  </si>
+  <si>
+    <t>VCC_OUT</t>
   </si>
 </sst>
 </file>
@@ -160,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +271,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,11 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,10 +321,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="D3:AA7" totalsRowShown="0">
-  <autoFilter ref="D3:AA7" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA11" totalsRowShown="0">
+  <autoFilter ref="C3:AA11" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3250EFE0-D9A6-43E0-881A-1E2F65052EF9}" name="IC"/>
+    <tableColumn id="25" xr3:uid="{29AC5D4B-E30D-49EF-B245-55806969662D}" name="nickname"/>
     <tableColumn id="2" xr3:uid="{E4BEE50D-07FE-442F-94E1-A7A1183F8BAE}" name="Power Name 1"/>
     <tableColumn id="3" xr3:uid="{C752E68F-C1ED-4FED-A557-7240030ADB83}" name="Voltage 1"/>
     <tableColumn id="4" xr3:uid="{750801C3-DE36-463C-A59B-6E522275AF14}" name="Power Name 2"/>
@@ -516,38 +617,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA7"/>
+  <dimension ref="A2:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="11.5546875" customWidth="1"/>
-    <col min="27" max="27" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" customWidth="1"/>
+    <col min="28" max="28" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -559,8 +661,11 @@
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -636,13 +741,22 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -656,33 +770,140 @@
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
+      <c r="F6" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
       </c>
       <c r="F7">
         <v>1.5</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1.5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>3.3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60655B5F-02D5-4CB6-917F-F4C5B451943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE790BA-EA37-46BB-AFC7-5049CCFE6BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>IC</t>
   </si>
@@ -225,6 +225,78 @@
   </si>
   <si>
     <t>VCC_OUT</t>
+  </si>
+  <si>
+    <t>M25P128-VMF6TP</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC </t>
+  </si>
+  <si>
+    <t>DRV8811PWPR</t>
+  </si>
+  <si>
+    <t>drive de moteur</t>
+  </si>
+  <si>
+    <t>VMA/B</t>
+  </si>
+  <si>
+    <t>KSZ8091MNXCA</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>VDDIO</t>
+  </si>
+  <si>
+    <t>3.3 - 2.5 - 1.8</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>AD9146BCPZ</t>
+  </si>
+  <si>
+    <t>CVDD18</t>
+  </si>
+  <si>
+    <t>DVDD18</t>
+  </si>
+  <si>
+    <t>AVDD33</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>ADS62P48IRGCT</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>DRVDD</t>
+  </si>
+  <si>
+    <t>ADA4927-2YCPZ-R2</t>
+  </si>
+  <si>
+    <t>OP-AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS- </t>
+  </si>
+  <si>
+    <t>VS+</t>
   </si>
 </sst>
 </file>
@@ -321,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA11" totalsRowShown="0">
-  <autoFilter ref="C3:AA11" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA17" totalsRowShown="0">
+  <autoFilter ref="C3:AA17" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3250EFE0-D9A6-43E0-881A-1E2F65052EF9}" name="IC"/>
     <tableColumn id="25" xr3:uid="{29AC5D4B-E30D-49EF-B245-55806969662D}" name="nickname"/>
@@ -617,14 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA11"/>
+  <dimension ref="A2:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -906,6 +979,126 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15">
+        <v>1.8</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE790BA-EA37-46BB-AFC7-5049CCFE6BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF93A7C3-91A2-451D-BE25-30A912A929CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32376" yWindow="1536" windowWidth="23040" windowHeight="13788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>IC</t>
   </si>
@@ -297,13 +297,25 @@
   </si>
   <si>
     <t>VS+</t>
+  </si>
+  <si>
+    <t>TPS51200DRCT</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>VTT</t>
+  </si>
+  <si>
+    <t>VIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +325,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,13 +386,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA17" totalsRowShown="0">
-  <autoFilter ref="C3:AA17" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA18" totalsRowShown="0">
+  <autoFilter ref="C3:AA18" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3250EFE0-D9A6-43E0-881A-1E2F65052EF9}" name="IC"/>
     <tableColumn id="25" xr3:uid="{29AC5D4B-E30D-49EF-B245-55806969662D}" name="nickname"/>
@@ -689,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA17"/>
+  <dimension ref="A2:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,16 +905,22 @@
       <c r="H7">
         <v>1.5</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>0.75</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.75</v>
       </c>
     </row>
@@ -1099,11 +1124,32 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>3.3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF93A7C3-91A2-451D-BE25-30A912A929CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECF058-63C8-43AE-822C-6449B6145CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32376" yWindow="1536" windowWidth="23040" windowHeight="13788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="DIMENSIONNEMENT" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="REG_TYPE">DIMENSIONNEMENT!$B$6:$B$11</definedName>
+    <definedName name="V_NET_LIST">DIMENSIONNEMENT!$D$7:$D$18</definedName>
+    <definedName name="V_NET_VOLTAGE">DIMENSIONNEMENT!$E$7:$E$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
   <si>
     <t>IC</t>
   </si>
@@ -309,13 +316,193 @@
   </si>
   <si>
     <t>VIN</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Voltage net list</t>
+  </si>
+  <si>
+    <t>3v3_ADC</t>
+  </si>
+  <si>
+    <t>3v3_DAC</t>
+  </si>
+  <si>
+    <t>3v3_DIGITAL</t>
+  </si>
+  <si>
+    <t>REG_TYPE</t>
+  </si>
+  <si>
+    <t>SWITCHING</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>LDO_INV</t>
+  </si>
+  <si>
+    <t>INVERTER</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>Voltage(V)</t>
+  </si>
+  <si>
+    <t>1V8_DIGITAL</t>
+  </si>
+  <si>
+    <t>1V5_DDR</t>
+  </si>
+  <si>
+    <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>CLK 25MHz</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>DRV8811</t>
+  </si>
+  <si>
+    <t>TEMP SENS x2</t>
+  </si>
+  <si>
+    <t>OCTO COUP</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>BANK 5</t>
+  </si>
+  <si>
+    <t>BANK 0 2 3</t>
+  </si>
+  <si>
+    <t>CLK 125MHz</t>
+  </si>
+  <si>
+    <t>OP AMP SORTIE x2</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>OP AMP ENTREE x2</t>
+  </si>
+  <si>
+    <t>-5V</t>
+  </si>
+  <si>
+    <t>1V2_VCCINT</t>
+  </si>
+  <si>
+    <t>VCC_AUX</t>
+  </si>
+  <si>
+    <t>VCCINT 1V2</t>
+  </si>
+  <si>
+    <t>IC NAME</t>
+  </si>
+  <si>
+    <t>Eff :</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Max Curr (A) :</t>
+  </si>
+  <si>
+    <t>Iout (A):</t>
+  </si>
+  <si>
+    <t>Iin (A):</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Pout (W) :</t>
+  </si>
+  <si>
+    <t>Pdis (W) :</t>
+  </si>
+  <si>
+    <t>Pin (W):</t>
+  </si>
+  <si>
+    <t>Vin (V):</t>
+  </si>
+  <si>
+    <t>Vout (V):</t>
+  </si>
+  <si>
+    <t>-7V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>INPUT CONN</t>
+  </si>
+  <si>
+    <t>lmz34002</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TPS7A47</t>
+  </si>
+  <si>
+    <t>5v5</t>
+  </si>
+  <si>
+    <t>TPS7A33</t>
+  </si>
+  <si>
+    <t>LMZ30604</t>
+  </si>
+  <si>
+    <t>LMZ23605</t>
+  </si>
+  <si>
+    <t>LMZ30602</t>
+  </si>
+  <si>
+    <t>TPS51200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +522,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +576,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -382,18 +639,291 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,6 +939,1176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connecteur droit avec flèche 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C916621D-A4F8-86D7-D067-A194D34EF54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="2011680"/>
+          <a:ext cx="769620" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connecteur droit avec flèche 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC962CE-9ABC-F97B-EEDE-77B212637E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844540" y="2042160"/>
+          <a:ext cx="1203960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur : en angle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BB7115-8573-952B-31A6-5DCFEFAD7F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="6453188"/>
+          <a:ext cx="956310" cy="629602"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>287385</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur : en angle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D73D0A-51CB-CC21-4866-1C36062DEF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3108961" y="3866604"/>
+          <a:ext cx="4726577" cy="1299756"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96062"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit avec flèche 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CFC102-EB37-517D-11C1-864A21506B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5907741" y="11555506"/>
+          <a:ext cx="1138518" cy="3630706"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484A0579-610B-5DE0-EC38-0C751AC7EEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5056094" y="6382871"/>
+          <a:ext cx="1918447" cy="5827058"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0BE590-C502-FBEF-48FA-0A68C27D9FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5244353" y="6409765"/>
+          <a:ext cx="1828800" cy="3836894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F0C0F-FE36-6865-0FB6-07DECF45D203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9437914" y="14478000"/>
+          <a:ext cx="5257800" cy="1230086"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AFE058-3B33-1C08-7345-87406A9A572B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9394371" y="13030200"/>
+          <a:ext cx="5225143" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit avec flèche 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA75940E-E8D3-F80F-BE4F-047AAC8DDA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318171" y="10504714"/>
+          <a:ext cx="5355772" cy="1894115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connecteur droit avec flèche 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A3540C-0370-2653-649D-0396AFE66E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9394371" y="7761514"/>
+          <a:ext cx="5312229" cy="3450772"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connecteur droit avec flèche 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319E82B6-5239-203D-B19C-FFFAA2509512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13237029" y="5323114"/>
+          <a:ext cx="1502228" cy="2710543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connecteur droit avec flèche 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB8159A-35E7-19F6-1AFD-68C839B943DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13247914" y="4234543"/>
+          <a:ext cx="1480457" cy="2177143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492B07D3-C58C-E336-1F93-3152B4A7CE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13247914" y="3113314"/>
+          <a:ext cx="1513115" cy="1099457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connecteur droit avec flèche 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86F247C-A2FC-E9AD-B6B2-1D1542140F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13215257" y="1926771"/>
+          <a:ext cx="1480457" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Connecteur droit avec flèche 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FDAA0C-EA2A-DD47-4E49-4C8EF44478EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8130988" y="2049716"/>
+          <a:ext cx="2783541" cy="1518237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connecteur droit avec flèche 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69633A-0AB1-DDC4-B2B3-258F9D069DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651812" y="3433482"/>
+          <a:ext cx="4251831" cy="430306"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>783771</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connecteur droit avec flèche 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7877CBC5-A9B4-9F58-45A0-4D06F30E27BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9285514" y="2275114"/>
+          <a:ext cx="1589315" cy="3592286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Connecteur droit avec flèche 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A685EB70-1D3D-2F8F-E0D5-3A1AA3DCFB6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185647" y="2913529"/>
+          <a:ext cx="4764100" cy="4801241"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connecteur droit avec flèche 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA988F03-2EFB-5FE7-8CF5-B5EF40213DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9329057" y="1817914"/>
+          <a:ext cx="5355772" cy="4778829"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit avec flèche 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E4FE1D-1136-927C-8C66-0BA892977C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2764971" y="609600"/>
+          <a:ext cx="11963400" cy="805543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81835</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382281</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>158164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit avec flèche 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE232A22-F537-410D-A0D5-9344C19985E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2816070" y="1919472"/>
+          <a:ext cx="694893" cy="8978410"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,6 +2142,29 @@
     <tableColumn id="24" xr3:uid="{4132500A-2D09-46B9-9333-940ACC74199E}" name="Power Name 12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5727C756-F506-46F1-8E4D-7BA176E54608}" name="Tableau2" displayName="Tableau2" ref="G6:I28" totalsRowShown="0">
+  <autoFilter ref="G6:I28" xr:uid="{5727C756-F506-46F1-8E4D-7BA176E54608}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{89F1DA81-9058-4B1C-BA96-A8F0FCFF4F22}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{6AABB9C2-4C28-4B4A-AF3F-E3C2561483C0}" name="Current (mA)"/>
+    <tableColumn id="3" xr3:uid="{13377734-F6D7-4275-9A25-1E6270D0E3DC}" name="Voltage net list"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76CA1BCB-75F9-40CA-B657-9CF1B8912621}" name="Tableau3" displayName="Tableau3" ref="D6:E18" totalsRowShown="0">
+  <autoFilter ref="D6:E18" xr:uid="{76CA1BCB-75F9-40CA-B657-9CF1B8912621}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4B3EF395-A155-4FC8-8B38-001D624A76F1}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{DB518B51-5793-404E-A988-73307184A8D5}" name="Colonne2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -710,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1152,4 +2875,2109 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA1996-AD2B-4FE9-96E1-5059264D70BB}">
+  <dimension ref="B5:I28"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>3.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>3.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>3.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f>"-7V"</f>
+        <v>-7V</v>
+      </c>
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f>"-5V"</f>
+        <v>-5V</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>750</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>320</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <v>180</v>
+      </c>
+      <c r="I22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26">
+        <v>250</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27">
+        <v>3000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28">
+        <v>3800</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28" xr:uid="{CC5CAFFF-68DD-468D-BDB2-64D11CE0F47B}">
+      <formula1>V_NET_LIST</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
+  <dimension ref="B3:AH85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="14" width="5.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" customWidth="1"/>
+    <col min="19" max="22" width="5.77734375" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.77734375" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="5.77734375" customWidth="1"/>
+    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="150" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE3" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH3" s="34"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF4" s="16">
+        <f>VLOOKUP(AE4,Tableau3[#All],2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="AG4" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE4,Tableau2[Current (mA)])</f>
+        <v>3800</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+    </row>
+    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE6" s="38">
+        <f>AF4*(AG4/1000)</f>
+        <v>91.199999999999989</v>
+      </c>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH6" s="30"/>
+    </row>
+    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="H7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="O7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="W7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28"/>
+    </row>
+    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="41">
+        <v>0.85</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="41">
+        <v>0.94</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z8" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="40">
+        <v>5</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="40">
+        <v>4</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="40">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH9" s="34"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="16">
+        <f>VLOOKUP(AE10,Tableau3[#All],2,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="AG10" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE10,Tableau2[Current (mA)])</f>
+        <v>3000</v>
+      </c>
+      <c r="AH10" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="37"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE12" s="38">
+        <f>AF10*(AG10/1000)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH12" s="30"/>
+    </row>
+    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <f>B15/VLOOKUP(B11,Tableau3[#All],2,FALSE)</f>
+        <v>4.3060700017236959</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15">
+        <f>SUM(AG4/1000,H13,H62)</f>
+        <v>4.3060700017236959</v>
+      </c>
+      <c r="H13" s="15">
+        <f>H15/VLOOKUP(H11,Tableau3[#All],2,FALSE)</f>
+        <v>0.47859747425116872</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="15">
+        <f>SUM(O13,O39)</f>
+        <v>1.7751615408588803</v>
+      </c>
+      <c r="O13" s="15">
+        <f>O15/VLOOKUP(O11,Tableau3[#All],2,FALSE)</f>
+        <v>1.6961101574596709</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="15">
+        <f>SUM(W35,W24,W46,W13,AG34/1000)</f>
+        <v>2.6572392466868173</v>
+      </c>
+      <c r="W13" s="15">
+        <f>W15/VLOOKUP(W11,Tableau3[#All],2,FALSE)</f>
+        <v>0.77005347593582885</v>
+      </c>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z11,Tableau2[Current (mA)])/1000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15">
+        <f>E15/E8</f>
+        <v>103.34568004136869</v>
+      </c>
+      <c r="C15" s="24">
+        <f>B15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="15">
+        <f>VLOOKUP(E11,Tableau3[#All],2,FALSE)*E13</f>
+        <v>103.34568004136869</v>
+      </c>
+      <c r="H15" s="15">
+        <f>K15/K8</f>
+        <v>11.486339382028049</v>
+      </c>
+      <c r="I15" s="24">
+        <f>H15-K15</f>
+        <v>1.7229509073042077</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="15">
+        <f>VLOOKUP(K11,Tableau3[#All],2,FALSE)*K13</f>
+        <v>9.7633884747238415</v>
+      </c>
+      <c r="O15" s="15">
+        <f>R15/R8</f>
+        <v>9.3286058660281892</v>
+      </c>
+      <c r="P15" s="24">
+        <f>O15-R15</f>
+        <v>0.55971635196169167</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="15">
+        <f>VLOOKUP(R11,Tableau3[#All],2,FALSE)*R13</f>
+        <v>8.7688895140664975</v>
+      </c>
+      <c r="W15" s="15">
+        <f>Z15/Z8</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="X15" s="24">
+        <f>W15-Z15</f>
+        <v>0.63529411764705923</v>
+      </c>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="15">
+        <f>VLOOKUP(Z11,Tableau3[#All],2,FALSE)*Z13</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AE15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH15" s="34"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AE16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="16">
+        <f>VLOOKUP(AE16,Tableau3[#All],2,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AG16" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE16,Tableau2[Current (mA)])</f>
+        <v>890</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE17" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="37"/>
+    </row>
+    <row r="18" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="28"/>
+      <c r="AE18" s="38">
+        <f>AF16*(AG16/1000)</f>
+        <v>1.335</v>
+      </c>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH18" s="30"/>
+    </row>
+    <row r="19" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z19" s="41">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="20" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="W21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE21" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH21" s="34"/>
+    </row>
+    <row r="22" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF22" s="16">
+        <f>VLOOKUP(AE22,Tableau3[#All],2,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AG22" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE22,Tableau2[Current (mA)])</f>
+        <v>50</v>
+      </c>
+      <c r="AH22" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="W23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="37"/>
+    </row>
+    <row r="24" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="15">
+        <f>W26/VLOOKUP(W22,Tableau3[#All],2,FALSE)</f>
+        <v>0.26383399209486164</v>
+      </c>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z22,Tableau2[Current (mA)])/1000</f>
+        <v>0.89</v>
+      </c>
+      <c r="AE24" s="38">
+        <f>AF22*(AG22/1000)</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH24" s="30"/>
+    </row>
+    <row r="25" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="W25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="15">
+        <f>Z26/Z19</f>
+        <v>1.451086956521739</v>
+      </c>
+      <c r="X26" s="24">
+        <f>W26-Z26</f>
+        <v>0.11608695652173906</v>
+      </c>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="15">
+        <f>VLOOKUP(Z22,Tableau3[#All],2,FALSE)*Z24</f>
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="27" spans="23:34" x14ac:dyDescent="0.3">
+      <c r="AE27" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH27" s="34"/>
+    </row>
+    <row r="28" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF28" s="16">
+        <f>VLOOKUP(AE28,Tableau3[#All],2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AG28" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE28,Tableau2[Current (mA)])</f>
+        <v>680</v>
+      </c>
+      <c r="AH28" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W29" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="28"/>
+      <c r="AE29" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="37"/>
+    </row>
+    <row r="30" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W30" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z30" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="AE30" s="38">
+        <f>AF28*(AG28/1000)</f>
+        <v>1.2240000000000002</v>
+      </c>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH30" s="30"/>
+    </row>
+    <row r="31" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="42"/>
+      <c r="O33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="W33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE33" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH33" s="34"/>
+    </row>
+    <row r="34" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="42"/>
+      <c r="O34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF34" s="16">
+        <f>VLOOKUP(AE34,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AG34" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE34,Tableau2[Current (mA)])</f>
+        <v>1336</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="42"/>
+      <c r="O35" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="40">
+        <v>1</v>
+      </c>
+      <c r="W35" s="15">
+        <f>W37/VLOOKUP(W33,Tableau3[#All],2,FALSE)</f>
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z33,Tableau2[Current (mA)])/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="AE35" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="37"/>
+    </row>
+    <row r="36" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N36" s="42"/>
+      <c r="O36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X36" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE36" s="38">
+        <f>AF34*(AG34/1000)</f>
+        <v>4.4088000000000003</v>
+      </c>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH36" s="30"/>
+    </row>
+    <row r="37" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="42"/>
+      <c r="O37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="W37" s="15">
+        <f>Z37/Z30</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="X37" s="24">
+        <f>W37-Z37</f>
+        <v>0.11250000000000002</v>
+      </c>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="15">
+        <f>VLOOKUP(Z33,Tableau3[#All],2,FALSE)*Z35</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N38" s="42"/>
+      <c r="O38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="42"/>
+      <c r="O39" s="15">
+        <f>O41/VLOOKUP(O37,Tableau3[#All],2,FALSE)</f>
+        <v>7.9051383399209488E-2</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="15">
+        <f>AG57/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="42"/>
+      <c r="O40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W40" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="28"/>
+    </row>
+    <row r="41" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N41" s="42"/>
+      <c r="O41" s="15">
+        <f>R41/R34</f>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="P41" s="24">
+        <f>O41-R41</f>
+        <v>0.13478260869565223</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="15">
+        <f>VLOOKUP(R37,Tableau3[#All],2,FALSE)*R39</f>
+        <v>0.3</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z41" s="41">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W42" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="W43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="W45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W46" s="15">
+        <f>W48/VLOOKUP(W44,Tableau3[#All],2,FALSE)</f>
+        <v>0.24189723320158105</v>
+      </c>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z44,Tableau2[Current (mA)])/1000</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="W47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X47" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W48" s="15">
+        <f>Z48/Z41</f>
+        <v>1.3304347826086957</v>
+      </c>
+      <c r="X48" s="24">
+        <f>W48-Z48</f>
+        <v>0.10643478260869554</v>
+      </c>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="15">
+        <f>VLOOKUP(Z44,Tableau3[#All],2,FALSE)*Z46</f>
+        <v>1.2240000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N50" s="42"/>
+    </row>
+    <row r="51" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N51" s="42"/>
+      <c r="O51" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="28"/>
+    </row>
+    <row r="52" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N52" s="42"/>
+      <c r="O52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N53" s="42"/>
+      <c r="O53" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="8:34" x14ac:dyDescent="0.3">
+      <c r="N54" s="42"/>
+      <c r="O54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N55" s="42"/>
+      <c r="O55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE56" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH56" s="34"/>
+    </row>
+    <row r="57" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="19"/>
+      <c r="J57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="41">
+        <v>0.65</v>
+      </c>
+      <c r="N57" s="42"/>
+      <c r="O57" s="15">
+        <f>O59/VLOOKUP(O55,Tableau3[#All],2,FALSE)</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!R55,Tableau2[Current (mA)])/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="AE57" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF57" s="16">
+        <f>VLOOKUP(AE57,Tableau3[#All],2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AG57" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE57,Tableau2[Current (mA)])</f>
+        <v>60</v>
+      </c>
+      <c r="AH57" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="40">
+        <v>2</v>
+      </c>
+      <c r="N58" s="42"/>
+      <c r="O58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE58" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="37"/>
+    </row>
+    <row r="59" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N59" s="42"/>
+      <c r="O59" s="15">
+        <f>R59/R52</f>
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="P59" s="24">
+        <f>O59-R59</f>
+        <v>0.70400000000000018</v>
+      </c>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="15">
+        <f>VLOOKUP(R55,Tableau3[#All],2,FALSE)*R57</f>
+        <v>1.056</v>
+      </c>
+      <c r="AE59" s="38">
+        <f>AF57*(AG57/1000)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH59" s="30"/>
+    </row>
+    <row r="60" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H60" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N60" s="42"/>
+    </row>
+    <row r="61" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H62" s="15">
+        <f>H64/VLOOKUP(H60,Tableau3[#All],2,FALSE)</f>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="15">
+        <f>O83</f>
+        <v>6.1224489795918373E-2</v>
+      </c>
+      <c r="N62" s="42"/>
+      <c r="O62" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="28"/>
+      <c r="AE62" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF62" s="32"/>
+      <c r="AG62" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH62" s="34"/>
+    </row>
+    <row r="63" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" s="23"/>
+      <c r="K63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N63" s="42"/>
+      <c r="O63" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AE63" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF63" s="16">
+        <f>VLOOKUP(AE63,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AG63" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE63,Tableau2[Current (mA)])</f>
+        <v>320</v>
+      </c>
+      <c r="AH63" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H64" s="15">
+        <f>K64/K57</f>
+        <v>0.65934065934065933</v>
+      </c>
+      <c r="I64" s="24">
+        <f>H64-K64</f>
+        <v>0.23076923076923073</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="15">
+        <f>VLOOKUP(K60,Tableau3[#All],2,FALSE)*K62*-1</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="N64" s="42"/>
+      <c r="O64" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="37"/>
+    </row>
+    <row r="65" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N65" s="42"/>
+      <c r="O65" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE65" s="38">
+        <f>AF63*(AG63/1000)</f>
+        <v>1.056</v>
+      </c>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH65" s="30"/>
+    </row>
+    <row r="66" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N66" s="42"/>
+      <c r="O66" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N67" s="42"/>
+      <c r="O67" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N68" s="42"/>
+      <c r="O68" s="15">
+        <f>O70/VLOOKUP(O66,Tableau3[#All],2,FALSE)</f>
+        <v>5.892857142857142E-2</v>
+      </c>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!R66,Tableau2[Current (mA)])/1000</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AE68" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF68" s="32"/>
+      <c r="AG68" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH68" s="34"/>
+    </row>
+    <row r="69" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N69" s="42"/>
+      <c r="O69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P69" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE69" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF69" s="16">
+        <f>VLOOKUP(AE69,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AG69" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE69,Tableau2[Current (mA)])</f>
+        <v>55</v>
+      </c>
+      <c r="AH69" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N70" s="42"/>
+      <c r="O70" s="15">
+        <f>R70/R63</f>
+        <v>0.32410714285714282</v>
+      </c>
+      <c r="P70" s="24">
+        <f>O70-R70</f>
+        <v>0.14260714285714282</v>
+      </c>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="15">
+        <f>VLOOKUP(R66,Tableau3[#All],2,FALSE)*R68</f>
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="AE70" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF70" s="36"/>
+      <c r="AG70" s="36"/>
+      <c r="AH70" s="37"/>
+    </row>
+    <row r="71" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N71" s="42"/>
+      <c r="AE71" s="38">
+        <f>AF69*(AG69/1000)</f>
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH71" s="30"/>
+    </row>
+    <row r="72" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N72" s="42"/>
+    </row>
+    <row r="73" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N74" s="42"/>
+      <c r="AE74" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF74" s="32"/>
+      <c r="AG74" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH74" s="34"/>
+    </row>
+    <row r="75" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N75" s="42"/>
+      <c r="AE75" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF75" s="16">
+        <f>VLOOKUP(AE75,Tableau3[#All],2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="AG75" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE75,Tableau2[Current (mA)])</f>
+        <v>60</v>
+      </c>
+      <c r="AH75" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N76" s="42"/>
+      <c r="AE76" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF76" s="36"/>
+      <c r="AG76" s="36"/>
+      <c r="AH76" s="37"/>
+    </row>
+    <row r="77" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N77" s="42"/>
+      <c r="O77" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="28"/>
+      <c r="AE77" s="38">
+        <f>AF75*(AG75/1000)*-1</f>
+        <v>0.3</v>
+      </c>
+      <c r="AF77" s="39"/>
+      <c r="AG77" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH77" s="30"/>
+    </row>
+    <row r="78" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N78" s="42"/>
+      <c r="O78" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R78" s="41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N79" s="42"/>
+      <c r="O79" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="14:34" x14ac:dyDescent="0.3">
+      <c r="N80" s="42"/>
+      <c r="O80" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N81" s="42"/>
+      <c r="O81" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N82" s="42"/>
+      <c r="O82" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N83" s="42"/>
+      <c r="O83" s="15">
+        <f>O85/VLOOKUP(O81,Tableau3[#All],2,FALSE)*-1</f>
+        <v>6.1224489795918373E-2</v>
+      </c>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="15">
+        <f>AG75/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N84" s="42"/>
+      <c r="O84" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P84" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N85" s="42"/>
+      <c r="O85" s="15">
+        <f>R85/R78</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="P85" s="24">
+        <f>O85-R85</f>
+        <v>0.12857142857142861</v>
+      </c>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="15">
+        <f>VLOOKUP(R81,Tableau3[#All],2,FALSE)*R83*-1</f>
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AE77:AF77"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AE74:AF74"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AE76:AH76"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AE68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W19:X19 W30:X30 W8:X8 O8:P8 O63:P63 O52:P52 W41:X41 O34:P34 O78:P78 H8:I8 H57:I57 B8:C8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
+      <formula1>REG_TYPE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W22 Z22 W33 Z33 W11 Z11 O11 R11 O66 R66 O55 R55 W44 Z44 O37 R37 O81 R81 AE10 AE34 AE16 AE22 AE28 AE57 AE75 AE4 AE63 AE69 H11 K11 H60 K60 B11 E11" xr:uid="{171558F4-673C-494B-85C2-DAD3DB31C89D}">
+      <formula1>V_NET_LIST</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECF058-63C8-43AE-822C-6449B6145CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35C299-6B1C-4C3F-ACC5-78F75F68807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="0" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -848,56 +848,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,15 +873,56 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3273,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
   <dimension ref="B3:AH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3305,14 +3305,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE3" s="31" t="s">
+      <c r="AE3" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="33" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH3" s="34"/>
+      <c r="AH3" s="43"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="AE4" s="17" t="s">
@@ -3331,133 +3331,133 @@
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE5" s="35" t="s">
+      <c r="AE5" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="24"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE6" s="38">
+      <c r="AE6" s="25">
         <f>AF4*(AG4/1000)</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="29" t="s">
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH6" s="30"/>
+      <c r="AH6" s="28"/>
     </row>
     <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="H7" s="26" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="H7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="O7" s="26" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="O7" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="W7" s="26" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="W7" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="28"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="19">
         <v>0.85</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="19">
         <v>0.94</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="X8" s="19"/>
+      <c r="X8" s="39"/>
       <c r="Y8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="40">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="18">
         <v>5</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="40">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="18">
         <v>4</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="40">
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="18">
         <v>4</v>
       </c>
-      <c r="AE9" s="31" t="s">
+      <c r="AE9" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="33" t="s">
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH9" s="34"/>
+      <c r="AH9" s="43"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
@@ -3540,12 +3540,12 @@
       <c r="Z11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AE11" s="35" t="s">
+      <c r="AE11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="37"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="24"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
@@ -3580,36 +3580,36 @@
       <c r="Z12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="25">
         <f>AF10*(AG10/1000)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="29" t="s">
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH12" s="30"/>
+      <c r="AH12" s="28"/>
     </row>
     <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <f>B15/VLOOKUP(B11,Tableau3[#All],2,FALSE)</f>
-        <v>4.3060700017236959</v>
+        <v>4.3003841487872032</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="15">
         <f>SUM(AG4/1000,H13,H62)</f>
-        <v>4.3060700017236959</v>
+        <v>4.3003841487872032</v>
       </c>
       <c r="H13" s="15">
         <f>H15/VLOOKUP(H11,Tableau3[#All],2,FALSE)</f>
-        <v>0.47859747425116872</v>
+        <v>0.47346107186412695</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="15">
         <f>SUM(O13,O39)</f>
-        <v>1.7751615408588803</v>
+        <v>1.7561101574596709</v>
       </c>
       <c r="O13" s="15">
         <f>O15/VLOOKUP(O11,Tableau3[#All],2,FALSE)</f>
@@ -3636,40 +3636,40 @@
       <c r="B14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="W14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Y14" s="23"/>
+      <c r="Y14" s="33"/>
       <c r="Z14" s="10" t="s">
         <v>130</v>
       </c>
@@ -3677,39 +3677,39 @@
     <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15">
         <f>E15/E8</f>
-        <v>103.34568004136869</v>
-      </c>
-      <c r="C15" s="24">
+        <v>103.20921957089288</v>
+      </c>
+      <c r="C15" s="34">
         <f>B15-E15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="15">
         <f>VLOOKUP(E11,Tableau3[#All],2,FALSE)*E13</f>
-        <v>103.34568004136869</v>
+        <v>103.20921957089288</v>
       </c>
       <c r="H15" s="15">
         <f>K15/K8</f>
-        <v>11.486339382028049</v>
-      </c>
-      <c r="I15" s="24">
+        <v>11.363065724739046</v>
+      </c>
+      <c r="I15" s="34">
         <f>H15-K15</f>
-        <v>1.7229509073042077</v>
-      </c>
-      <c r="J15" s="25"/>
+        <v>1.704459858710857</v>
+      </c>
+      <c r="J15" s="35"/>
       <c r="K15" s="15">
         <f>VLOOKUP(K11,Tableau3[#All],2,FALSE)*K13</f>
-        <v>9.7633884747238415</v>
+        <v>9.6586058660281893</v>
       </c>
       <c r="O15" s="15">
         <f>R15/R8</f>
         <v>9.3286058660281892</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="34">
         <f>O15-R15</f>
         <v>0.55971635196169167</v>
       </c>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="15">
         <f>VLOOKUP(R11,Tableau3[#All],2,FALSE)*R13</f>
         <v>8.7688895140664975</v>
@@ -3718,23 +3718,23 @@
         <f>Z15/Z8</f>
         <v>4.2352941176470589</v>
       </c>
-      <c r="X15" s="24">
+      <c r="X15" s="34">
         <f>W15-Z15</f>
         <v>0.63529411764705923</v>
       </c>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="35"/>
       <c r="Z15" s="15">
         <f>VLOOKUP(Z11,Tableau3[#All],2,FALSE)*Z13</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AE15" s="31" t="s">
+      <c r="AE15" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="33" t="s">
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH15" s="34"/>
+      <c r="AH15" s="43"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="AE16" s="17" t="s">
@@ -3753,49 +3753,49 @@
       </c>
     </row>
     <row r="17" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE17" s="35" t="s">
+      <c r="AE17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="37"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W18" s="26" t="s">
+      <c r="W18" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="28"/>
-      <c r="AE18" s="38">
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="31"/>
+      <c r="AE18" s="25">
         <f>AF16*(AG16/1000)</f>
         <v>1.335</v>
       </c>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="29" t="s">
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH18" s="30"/>
+      <c r="AH18" s="28"/>
     </row>
     <row r="19" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W19" s="18" t="s">
+      <c r="W19" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="X19" s="19"/>
+      <c r="X19" s="39"/>
       <c r="Y19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="41">
+      <c r="Z19" s="19">
         <v>0.92</v>
       </c>
     </row>
     <row r="20" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W20" s="20" t="s">
+      <c r="W20" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="40">
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="18">
         <v>2</v>
       </c>
     </row>
@@ -3808,14 +3808,14 @@
       <c r="Z21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE21" s="31" t="s">
+      <c r="AE21" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="33" t="s">
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH21" s="34"/>
+      <c r="AH21" s="43"/>
     </row>
     <row r="22" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W22" s="14" t="s">
@@ -3850,12 +3850,12 @@
       <c r="Z23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE23" s="35" t="s">
+      <c r="AE23" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="37"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="24"/>
     </row>
     <row r="24" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W24" s="15">
@@ -3868,24 +3868,24 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z22,Tableau2[Current (mA)])/1000</f>
         <v>0.89</v>
       </c>
-      <c r="AE24" s="38">
+      <c r="AE24" s="25">
         <f>AF22*(AG22/1000)</f>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="29" t="s">
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH24" s="30"/>
+      <c r="AH24" s="28"/>
     </row>
     <row r="25" spans="23:34" x14ac:dyDescent="0.3">
       <c r="W25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Y25" s="23"/>
+      <c r="Y25" s="33"/>
       <c r="Z25" s="10" t="s">
         <v>130</v>
       </c>
@@ -3895,25 +3895,25 @@
         <f>Z26/Z19</f>
         <v>1.451086956521739</v>
       </c>
-      <c r="X26" s="24">
+      <c r="X26" s="34">
         <f>W26-Z26</f>
         <v>0.11608695652173906</v>
       </c>
-      <c r="Y26" s="25"/>
+      <c r="Y26" s="35"/>
       <c r="Z26" s="15">
         <f>VLOOKUP(Z22,Tableau3[#All],2,FALSE)*Z24</f>
         <v>1.335</v>
       </c>
     </row>
     <row r="27" spans="23:34" x14ac:dyDescent="0.3">
-      <c r="AE27" s="31" t="s">
+      <c r="AE27" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="33" t="s">
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH27" s="34"/>
+      <c r="AH27" s="43"/>
     </row>
     <row r="28" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AE28" s="17" t="s">
@@ -3932,47 +3932,47 @@
       </c>
     </row>
     <row r="29" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W29" s="26" t="s">
+      <c r="W29" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28"/>
-      <c r="AE29" s="35" t="s">
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="31"/>
+      <c r="AE29" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="37"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="24"/>
     </row>
     <row r="30" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W30" s="18" t="s">
+      <c r="W30" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="X30" s="19"/>
+      <c r="X30" s="39"/>
       <c r="Y30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z30" s="43">
+      <c r="Z30" s="21">
         <v>0.25</v>
       </c>
-      <c r="AE30" s="38">
+      <c r="AE30" s="25">
         <f>AF28*(AG28/1000)</f>
         <v>1.2240000000000002</v>
       </c>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="29" t="s">
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH30" s="30"/>
+      <c r="AH30" s="28"/>
     </row>
     <row r="31" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="40">
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="18">
         <v>0.05</v>
       </c>
     </row>
@@ -3987,13 +3987,13 @@
       </c>
     </row>
     <row r="33" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="42"/>
-      <c r="O33" s="26" t="s">
+      <c r="N33" s="20"/>
+      <c r="O33" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="28"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
       <c r="W33" s="14" t="s">
         <v>95</v>
       </c>
@@ -4002,26 +4002,27 @@
       <c r="Z33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AE33" s="31" t="s">
+      <c r="AE33" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="33" t="s">
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH33" s="34"/>
+      <c r="AH33" s="43"/>
     </row>
     <row r="34" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N34" s="42"/>
-      <c r="O34" s="18" t="s">
+      <c r="N34" s="20"/>
+      <c r="O34" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="P34" s="19"/>
+      <c r="P34" s="39"/>
       <c r="Q34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R34" s="13">
-        <v>0.69</v>
+      <c r="R34" s="19">
+        <f>VLOOKUP(R37,Tableau3[#All],2,FALSE)/VLOOKUP(O37,Tableau3[#All],2,FALSE)</f>
+        <v>0.90909090909090906</v>
       </c>
       <c r="W34" s="9" t="s">
         <v>127</v>
@@ -4047,13 +4048,13 @@
       </c>
     </row>
     <row r="35" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N35" s="42"/>
-      <c r="O35" s="20" t="s">
+      <c r="N35" s="20"/>
+      <c r="O35" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="40">
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="18">
         <v>1</v>
       </c>
       <c r="W35" s="15">
@@ -4066,15 +4067,15 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z33,Tableau2[Current (mA)])/1000</f>
         <v>0.05</v>
       </c>
-      <c r="AE35" s="35" t="s">
+      <c r="AE35" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="37"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="24"/>
     </row>
     <row r="36" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N36" s="42"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="8" t="s">
         <v>133</v>
       </c>
@@ -4086,25 +4087,25 @@
       <c r="W36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X36" s="22" t="s">
+      <c r="X36" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Y36" s="23"/>
+      <c r="Y36" s="33"/>
       <c r="Z36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE36" s="38">
+      <c r="AE36" s="25">
         <f>AF34*(AG34/1000)</f>
         <v>4.4088000000000003</v>
       </c>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="29" t="s">
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH36" s="30"/>
+      <c r="AH36" s="28"/>
     </row>
     <row r="37" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N37" s="42"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="14" t="s">
         <v>145</v>
       </c>
@@ -4117,18 +4118,18 @@
         <f>Z37/Z30</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="X37" s="24">
+      <c r="X37" s="34">
         <f>W37-Z37</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="Y37" s="25"/>
+      <c r="Y37" s="35"/>
       <c r="Z37" s="15">
         <f>VLOOKUP(Z33,Tableau3[#All],2,FALSE)*Z35</f>
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
     <row r="38" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N38" s="42"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="9" t="s">
         <v>127</v>
       </c>
@@ -4139,10 +4140,10 @@
       </c>
     </row>
     <row r="39" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N39" s="42"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="15">
         <f>O41/VLOOKUP(O37,Tableau3[#All],2,FALSE)</f>
-        <v>7.9051383399209488E-2</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -4152,57 +4153,57 @@
       </c>
     </row>
     <row r="40" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N40" s="42"/>
+      <c r="N40" s="20"/>
       <c r="O40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P40" s="22" t="s">
+      <c r="P40" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q40" s="23"/>
+      <c r="Q40" s="33"/>
       <c r="R40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="W40" s="26" t="s">
+      <c r="W40" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="28"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N41" s="42"/>
+      <c r="N41" s="20"/>
       <c r="O41" s="15">
         <f>R41/R34</f>
-        <v>0.43478260869565222</v>
-      </c>
-      <c r="P41" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="P41" s="34">
         <f>O41-R41</f>
-        <v>0.13478260869565223</v>
-      </c>
-      <c r="Q41" s="25"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Q41" s="35"/>
       <c r="R41" s="15">
         <f>VLOOKUP(R37,Tableau3[#All],2,FALSE)*R39</f>
         <v>0.3</v>
       </c>
-      <c r="W41" s="18" t="s">
+      <c r="W41" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="X41" s="19"/>
+      <c r="X41" s="39"/>
       <c r="Y41" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z41" s="41">
+      <c r="Z41" s="19">
         <v>0.92</v>
       </c>
     </row>
     <row r="42" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W42" s="20" t="s">
+      <c r="W42" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="40">
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="18">
         <v>2</v>
       </c>
     </row>
@@ -4252,10 +4253,10 @@
       <c r="W47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X47" s="22" t="s">
+      <c r="X47" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Y47" s="23"/>
+      <c r="Y47" s="33"/>
       <c r="Z47" s="10" t="s">
         <v>130</v>
       </c>
@@ -4265,54 +4266,55 @@
         <f>Z48/Z41</f>
         <v>1.3304347826086957</v>
       </c>
-      <c r="X48" s="24">
+      <c r="X48" s="34">
         <f>W48-Z48</f>
         <v>0.10643478260869554</v>
       </c>
-      <c r="Y48" s="25"/>
+      <c r="Y48" s="35"/>
       <c r="Z48" s="15">
         <f>VLOOKUP(Z44,Tableau3[#All],2,FALSE)*Z46</f>
         <v>1.2240000000000002</v>
       </c>
     </row>
     <row r="50" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N50" s="42"/>
+      <c r="N50" s="20"/>
     </row>
     <row r="51" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N51" s="42"/>
-      <c r="O51" s="26" t="s">
+      <c r="N51" s="20"/>
+      <c r="O51" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="28"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
     </row>
     <row r="52" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N52" s="42"/>
-      <c r="O52" s="18" t="s">
+      <c r="N52" s="20"/>
+      <c r="O52" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="P52" s="19"/>
+      <c r="P52" s="39"/>
       <c r="Q52" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R52" s="13">
+      <c r="R52" s="19">
+        <f>VLOOKUP(R55,Tableau3[#All],2,FALSE)/VLOOKUP(O55,Tableau3[#All],2,FALSE)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="53" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N53" s="42"/>
-      <c r="O53" s="20" t="s">
+      <c r="N53" s="20"/>
+      <c r="O53" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="40">
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="8:34" x14ac:dyDescent="0.3">
-      <c r="N54" s="42"/>
+      <c r="N54" s="20"/>
       <c r="O54" s="8" t="s">
         <v>133</v>
       </c>
@@ -4323,7 +4325,7 @@
       </c>
     </row>
     <row r="55" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N55" s="42"/>
+      <c r="N55" s="20"/>
       <c r="O55" s="14" t="s">
         <v>145</v>
       </c>
@@ -4334,13 +4336,13 @@
       </c>
     </row>
     <row r="56" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="28"/>
-      <c r="N56" s="42"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="31"/>
+      <c r="N56" s="20"/>
       <c r="O56" s="9" t="s">
         <v>127</v>
       </c>
@@ -4349,27 +4351,27 @@
       <c r="R56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE56" s="31" t="s">
+      <c r="AE56" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="33" t="s">
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH56" s="34"/>
+      <c r="AH56" s="43"/>
     </row>
     <row r="57" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="19"/>
+      <c r="I57" s="39"/>
       <c r="J57" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="41">
+      <c r="K57" s="19">
         <v>0.65</v>
       </c>
-      <c r="N57" s="42"/>
+      <c r="N57" s="20"/>
       <c r="O57" s="15">
         <f>O59/VLOOKUP(O55,Tableau3[#All],2,FALSE)</f>
         <v>0.32000000000000006</v>
@@ -4396,31 +4398,31 @@
       </c>
     </row>
     <row r="58" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="40">
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="18">
         <v>2</v>
       </c>
-      <c r="N58" s="42"/>
+      <c r="N58" s="20"/>
       <c r="O58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P58" s="22" t="s">
+      <c r="P58" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q58" s="23"/>
+      <c r="Q58" s="33"/>
       <c r="R58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE58" s="35" t="s">
+      <c r="AE58" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="37"/>
+      <c r="AF58" s="23"/>
+      <c r="AG58" s="23"/>
+      <c r="AH58" s="24"/>
     </row>
     <row r="59" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H59" s="8" t="s">
@@ -4431,29 +4433,29 @@
       <c r="K59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N59" s="42"/>
+      <c r="N59" s="20"/>
       <c r="O59" s="15">
         <f>R59/R52</f>
         <v>1.7600000000000002</v>
       </c>
-      <c r="P59" s="24">
+      <c r="P59" s="34">
         <f>O59-R59</f>
         <v>0.70400000000000018</v>
       </c>
-      <c r="Q59" s="25"/>
+      <c r="Q59" s="35"/>
       <c r="R59" s="15">
         <f>VLOOKUP(R55,Tableau3[#All],2,FALSE)*R57</f>
         <v>1.056</v>
       </c>
-      <c r="AE59" s="38">
+      <c r="AE59" s="25">
         <f>AF57*(AG57/1000)</f>
         <v>0.3</v>
       </c>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="29" t="s">
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH59" s="30"/>
+      <c r="AH59" s="28"/>
     </row>
     <row r="60" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="14" t="s">
@@ -4464,7 +4466,7 @@
       <c r="K60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="N60" s="42"/>
+      <c r="N60" s="20"/>
     </row>
     <row r="61" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="9" t="s">
@@ -4475,56 +4477,57 @@
       <c r="K61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="N61" s="42"/>
+      <c r="N61" s="20"/>
     </row>
     <row r="62" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="15">
         <f>H64/VLOOKUP(H60,Tableau3[#All],2,FALSE)</f>
-        <v>2.7472527472527472E-2</v>
+        <v>2.6923076923076921E-2</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="15">
         <f>O83</f>
-        <v>6.1224489795918373E-2</v>
-      </c>
-      <c r="N62" s="42"/>
-      <c r="O62" s="26" t="s">
+        <v>0.06</v>
+      </c>
+      <c r="N62" s="20"/>
+      <c r="O62" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="28"/>
-      <c r="AE62" s="31" t="s">
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="31"/>
+      <c r="AE62" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF62" s="32"/>
-      <c r="AG62" s="33" t="s">
+      <c r="AF62" s="41"/>
+      <c r="AG62" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH62" s="34"/>
+      <c r="AH62" s="43"/>
     </row>
     <row r="63" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J63" s="23"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="N63" s="42"/>
-      <c r="O63" s="18" t="s">
+      <c r="N63" s="20"/>
+      <c r="O63" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="P63" s="19"/>
+      <c r="P63" s="39"/>
       <c r="Q63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R63" s="13">
-        <v>0.56000000000000005</v>
+      <c r="R63" s="19">
+        <f>VLOOKUP(R66,Tableau3[#All],2,FALSE)/VLOOKUP(O66,Tableau3[#All],2,FALSE)</f>
+        <v>0.6</v>
       </c>
       <c r="AE63" s="17" t="s">
         <v>93</v>
@@ -4544,35 +4547,35 @@
     <row r="64" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H64" s="15">
         <f>K64/K57</f>
-        <v>0.65934065934065933</v>
-      </c>
-      <c r="I64" s="24">
+        <v>0.64615384615384608</v>
+      </c>
+      <c r="I64" s="34">
         <f>H64-K64</f>
-        <v>0.23076923076923073</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>0.22615384615384609</v>
+      </c>
+      <c r="J64" s="35"/>
       <c r="K64" s="15">
         <f>VLOOKUP(K60,Tableau3[#All],2,FALSE)*K62*-1</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="N64" s="42"/>
-      <c r="O64" s="20" t="s">
+        <v>0.42</v>
+      </c>
+      <c r="N64" s="20"/>
+      <c r="O64" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="40">
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="18">
         <v>1</v>
       </c>
-      <c r="AE64" s="35" t="s">
+      <c r="AE64" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF64" s="36"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="37"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="24"/>
     </row>
     <row r="65" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N65" s="42"/>
+      <c r="N65" s="20"/>
       <c r="O65" s="8" t="s">
         <v>133</v>
       </c>
@@ -4581,18 +4584,18 @@
       <c r="R65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE65" s="38">
+      <c r="AE65" s="25">
         <f>AF63*(AG63/1000)</f>
         <v>1.056</v>
       </c>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="29" t="s">
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH65" s="30"/>
+      <c r="AH65" s="28"/>
     </row>
     <row r="66" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N66" s="42"/>
+      <c r="N66" s="20"/>
       <c r="O66" s="14" t="s">
         <v>145</v>
       </c>
@@ -4603,7 +4606,7 @@
       </c>
     </row>
     <row r="67" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N67" s="42"/>
+      <c r="N67" s="20"/>
       <c r="O67" s="9" t="s">
         <v>127</v>
       </c>
@@ -4614,10 +4617,10 @@
       </c>
     </row>
     <row r="68" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N68" s="42"/>
+      <c r="N68" s="20"/>
       <c r="O68" s="15">
         <f>O70/VLOOKUP(O66,Tableau3[#All],2,FALSE)</f>
-        <v>5.892857142857142E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
@@ -4625,24 +4628,24 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!R66,Tableau2[Current (mA)])/1000</f>
         <v>5.5E-2</v>
       </c>
-      <c r="AE68" s="31" t="s">
+      <c r="AE68" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF68" s="32"/>
-      <c r="AG68" s="33" t="s">
+      <c r="AF68" s="41"/>
+      <c r="AG68" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH68" s="34"/>
+      <c r="AH68" s="43"/>
     </row>
     <row r="69" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N69" s="42"/>
+      <c r="N69" s="20"/>
       <c r="O69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P69" s="22" t="s">
+      <c r="P69" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q69" s="23"/>
+      <c r="Q69" s="33"/>
       <c r="R69" s="10" t="s">
         <v>130</v>
       </c>
@@ -4662,58 +4665,58 @@
       </c>
     </row>
     <row r="70" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N70" s="42"/>
+      <c r="N70" s="20"/>
       <c r="O70" s="15">
         <f>R70/R63</f>
-        <v>0.32410714285714282</v>
-      </c>
-      <c r="P70" s="24">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="P70" s="34">
         <f>O70-R70</f>
-        <v>0.14260714285714282</v>
-      </c>
-      <c r="Q70" s="25"/>
+        <v>0.121</v>
+      </c>
+      <c r="Q70" s="35"/>
       <c r="R70" s="15">
         <f>VLOOKUP(R66,Tableau3[#All],2,FALSE)*R68</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AE70" s="35" t="s">
+      <c r="AE70" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="37"/>
+      <c r="AF70" s="23"/>
+      <c r="AG70" s="23"/>
+      <c r="AH70" s="24"/>
     </row>
     <row r="71" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N71" s="42"/>
-      <c r="AE71" s="38">
+      <c r="N71" s="20"/>
+      <c r="AE71" s="25">
         <f>AF69*(AG69/1000)</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="29" t="s">
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH71" s="30"/>
+      <c r="AH71" s="28"/>
     </row>
     <row r="72" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N72" s="42"/>
+      <c r="N72" s="20"/>
     </row>
     <row r="73" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N73" s="42"/>
+      <c r="N73" s="20"/>
     </row>
     <row r="74" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N74" s="42"/>
-      <c r="AE74" s="31" t="s">
+      <c r="N74" s="20"/>
+      <c r="AE74" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AF74" s="32"/>
-      <c r="AG74" s="33" t="s">
+      <c r="AF74" s="41"/>
+      <c r="AG74" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH74" s="34"/>
+      <c r="AH74" s="43"/>
     </row>
     <row r="75" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N75" s="42"/>
+      <c r="N75" s="20"/>
       <c r="AE75" s="17" t="s">
         <v>118</v>
       </c>
@@ -4730,58 +4733,59 @@
       </c>
     </row>
     <row r="76" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N76" s="42"/>
-      <c r="AE76" s="35" t="s">
+      <c r="N76" s="20"/>
+      <c r="AE76" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="AF76" s="36"/>
-      <c r="AG76" s="36"/>
-      <c r="AH76" s="37"/>
+      <c r="AF76" s="23"/>
+      <c r="AG76" s="23"/>
+      <c r="AH76" s="24"/>
     </row>
     <row r="77" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N77" s="42"/>
-      <c r="O77" s="26" t="s">
+      <c r="N77" s="20"/>
+      <c r="O77" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="28"/>
-      <c r="AE77" s="38">
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="31"/>
+      <c r="AE77" s="25">
         <f>AF75*(AG75/1000)*-1</f>
         <v>0.3</v>
       </c>
-      <c r="AF77" s="39"/>
-      <c r="AG77" s="29" t="s">
+      <c r="AF77" s="26"/>
+      <c r="AG77" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AH77" s="30"/>
+      <c r="AH77" s="28"/>
     </row>
     <row r="78" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N78" s="42"/>
-      <c r="O78" s="18" t="s">
+      <c r="N78" s="20"/>
+      <c r="O78" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="P78" s="19"/>
+      <c r="P78" s="39"/>
       <c r="Q78" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R78" s="41">
-        <v>0.7</v>
+      <c r="R78" s="19">
+        <f>VLOOKUP(R81,Tableau3[#All],2,FALSE)/VLOOKUP(O81,Tableau3[#All],2,FALSE)</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="79" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N79" s="42"/>
-      <c r="O79" s="20" t="s">
+      <c r="N79" s="20"/>
+      <c r="O79" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="40">
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N80" s="42"/>
+      <c r="N80" s="20"/>
       <c r="O80" s="8" t="s">
         <v>133</v>
       </c>
@@ -4792,7 +4796,7 @@
       </c>
     </row>
     <row r="81" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N81" s="42"/>
+      <c r="N81" s="20"/>
       <c r="O81" s="14" t="s">
         <v>135</v>
       </c>
@@ -4803,7 +4807,7 @@
       </c>
     </row>
     <row r="82" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N82" s="42"/>
+      <c r="N82" s="20"/>
       <c r="O82" s="9" t="s">
         <v>127</v>
       </c>
@@ -4814,10 +4818,10 @@
       </c>
     </row>
     <row r="83" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N83" s="42"/>
+      <c r="N83" s="20"/>
       <c r="O83" s="15">
         <f>O85/VLOOKUP(O81,Tableau3[#All],2,FALSE)*-1</f>
-        <v>6.1224489795918373E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
@@ -4827,29 +4831,29 @@
       </c>
     </row>
     <row r="84" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N84" s="42"/>
+      <c r="N84" s="20"/>
       <c r="O84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P84" s="22" t="s">
+      <c r="P84" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q84" s="23"/>
+      <c r="Q84" s="33"/>
       <c r="R84" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N85" s="42"/>
+      <c r="N85" s="20"/>
       <c r="O85" s="15">
         <f>R85/R78</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="P85" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="P85" s="34">
         <f>O85-R85</f>
-        <v>0.12857142857142861</v>
-      </c>
-      <c r="Q85" s="25"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q85" s="35"/>
       <c r="R85" s="15">
         <f>VLOOKUP(R81,Tableau3[#All],2,FALSE)*R83*-1</f>
         <v>0.3</v>
@@ -4857,6 +4861,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AE68:AF68"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AE77:AF77"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AE74:AF74"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AE76:AH76"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
     <mergeCell ref="AE70:AH70"/>
     <mergeCell ref="AE71:AF71"/>
     <mergeCell ref="AG71:AH71"/>
@@ -4881,94 +4971,8 @@
     <mergeCell ref="W19:X19"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AE77:AF77"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AE74:AF74"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AE76:AH76"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AE29:AH29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AE68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W19:X19 W30:X30 W8:X8 O8:P8 O63:P63 O52:P52 W41:X41 O34:P34 O78:P78 H8:I8 H57:I57 B8:C8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
       <formula1>REG_TYPE</formula1>
     </dataValidation>

--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35C299-6B1C-4C3F-ACC5-78F75F68807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093EAB2-E991-4644-B529-E9FD0B0D74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="0" windowWidth="17280" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -858,6 +858,51 @@
     <xf numFmtId="9" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,51 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,13 +945,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -998,13 +998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -1051,13 +1051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -1104,13 +1104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>119743</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>63136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>287385</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
@@ -1156,13 +1156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
@@ -1209,13 +1209,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>322729</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
@@ -1262,13 +1262,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>188259</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
@@ -1315,13 +1315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1368,13 +1368,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>87085</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
@@ -1421,13 +1421,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>10885</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1474,13 +1474,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>87085</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
@@ -1527,13 +1527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>65315</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
@@ -1580,13 +1580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
@@ -1633,13 +1633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
@@ -1686,13 +1686,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
@@ -1739,13 +1739,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>277906</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
@@ -1792,13 +1792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>370114</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1845,13 +1845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>783771</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
@@ -1898,13 +1898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>322729</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
@@ -1951,13 +1951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>337458</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2004,13 +2004,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>43542</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
@@ -2057,13 +2057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>81835</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>90672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>382281</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>158164</xdr:rowOff>
@@ -2882,7 +2882,7 @@
   <dimension ref="B5:I28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3271,1712 +3271,1712 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
-  <dimension ref="B3:AH85"/>
+  <dimension ref="E3:AK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:Z7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="7" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="14" width="5.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="17" width="5.77734375" customWidth="1"/>
     <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="19" max="22" width="5.77734375" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="25" width="5.77734375" customWidth="1"/>
     <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="5.77734375" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="150" width="5.77734375" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="5.77734375" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="153" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE3" s="40" t="s">
+    <row r="3" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH3" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42" t="s">
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH3" s="43"/>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE4" s="17" t="s">
+      <c r="AK3" s="36"/>
+    </row>
+    <row r="4" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AF4" s="16">
-        <f>VLOOKUP(AE4,Tableau3[#All],2,FALSE)</f>
+      <c r="AI4" s="16">
+        <f>VLOOKUP(AH4,Tableau3[#All],2,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AG4" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE4,Tableau2[Current (mA)])</f>
+      <c r="AJ4" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH4,Tableau2[Current (mA)])</f>
         <v>3800</v>
       </c>
-      <c r="AH4" s="16" t="s">
+      <c r="AK4" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE5" s="22" t="s">
+    <row r="5" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24"/>
-    </row>
-    <row r="6" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE6" s="25">
-        <f>AF4*(AG4/1000)</f>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
+    </row>
+    <row r="6" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH6" s="40">
+        <f>AI4*(AJ4/1000)</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="27" t="s">
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH6" s="28"/>
-    </row>
-    <row r="7" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="29" t="s">
+      <c r="AK6" s="43"/>
+    </row>
+    <row r="7" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="H7" s="29" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="K7" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="O7" s="29" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="R7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="W7" s="29" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="Z7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="24"/>
+    </row>
+    <row r="8" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="12" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="13">
+      <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="K8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="12" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="19">
+      <c r="N8" s="19">
         <v>0.85</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="R8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="12" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="19">
+      <c r="U8" s="19">
         <v>0.94</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="Z8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="12" t="s">
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AC8" s="19">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="K9" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="18">
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="18">
         <v>5</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="R9" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="18">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="18">
         <v>4</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="Z9" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="18">
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="18">
         <v>4</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AH9" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42" t="s">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH9" s="43"/>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="AK9" s="36"/>
+    </row>
+    <row r="10" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="7" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="Z10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="7" t="s">
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE10" s="17" t="s">
+      <c r="AH10" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="AF10" s="16">
-        <f>VLOOKUP(AE10,Tableau3[#All],2,FALSE)</f>
+      <c r="AI10" s="16">
+        <f>VLOOKUP(AH10,Tableau3[#All],2,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="AG10" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE10,Tableau2[Current (mA)])</f>
+      <c r="AJ10" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH10,Tableau2[Current (mA)])</f>
         <v>3000</v>
       </c>
-      <c r="AH10" s="16" t="s">
+      <c r="AK10" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+    <row r="11" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="14" t="s">
         <v>101</v>
       </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
       <c r="K11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="14" t="s">
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="Z11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="14" t="s">
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AE11" s="22" t="s">
+      <c r="AH11" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="24"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="39"/>
+    </row>
+    <row r="12" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9" t="s">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="Z12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="9" t="s">
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE12" s="25">
-        <f>AF10*(AG10/1000)</f>
+      <c r="AH12" s="40">
+        <f>AI10*(AJ10/1000)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="27" t="s">
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH12" s="28"/>
-    </row>
-    <row r="13" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
-        <f>B15/VLOOKUP(B11,Tableau3[#All],2,FALSE)</f>
+      <c r="AK12" s="43"/>
+    </row>
+    <row r="13" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="15">
+        <f>E15/VLOOKUP(E11,Tableau3[#All],2,FALSE)</f>
         <v>4.3003841487872032</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15">
-        <f>SUM(AG4/1000,H13,H62)</f>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15">
+        <f>SUM(AJ4/1000,K13,K62)</f>
         <v>4.3003841487872032</v>
       </c>
-      <c r="H13" s="15">
-        <f>H15/VLOOKUP(H11,Tableau3[#All],2,FALSE)</f>
+      <c r="K13" s="15">
+        <f>K15/VLOOKUP(K11,Tableau3[#All],2,FALSE)</f>
         <v>0.47346107186412695</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15">
-        <f>SUM(O13,O39)</f>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15">
+        <f>SUM(R13,R39)</f>
         <v>1.7561101574596709</v>
       </c>
-      <c r="O13" s="15">
-        <f>O15/VLOOKUP(O11,Tableau3[#All],2,FALSE)</f>
+      <c r="R13" s="15">
+        <f>R15/VLOOKUP(R11,Tableau3[#All],2,FALSE)</f>
         <v>1.6961101574596709</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="15">
-        <f>SUM(W35,W24,W46,W13,AG34/1000)</f>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="15">
+        <f>SUM(Z35,Z24,Z46,Z13,AJ34/1000)</f>
         <v>2.6572392466868173</v>
       </c>
-      <c r="W13" s="15">
-        <f>W15/VLOOKUP(W11,Tableau3[#All],2,FALSE)</f>
+      <c r="Z13" s="15">
+        <f>Z15/VLOOKUP(Z11,Tableau3[#All],2,FALSE)</f>
         <v>0.77005347593582885</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z11,Tableau2[Current (mA)])/1000</f>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC11,Tableau2[Current (mA)])/1000</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="F14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="L14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="10" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="S14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="10" t="s">
+      <c r="T14" s="30"/>
+      <c r="U14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X14" s="32" t="s">
+      <c r="AA14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="10" t="s">
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15">
-        <f>E15/E8</f>
+    <row r="15" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="15">
+        <f>H15/H8</f>
         <v>103.20921957089288</v>
       </c>
-      <c r="C15" s="34">
-        <f>B15-E15</f>
+      <c r="F15" s="31">
+        <f>E15-H15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="15">
-        <f>VLOOKUP(E11,Tableau3[#All],2,FALSE)*E13</f>
+      <c r="G15" s="32"/>
+      <c r="H15" s="15">
+        <f>VLOOKUP(H11,Tableau3[#All],2,FALSE)*H13</f>
         <v>103.20921957089288</v>
       </c>
-      <c r="H15" s="15">
-        <f>K15/K8</f>
+      <c r="K15" s="15">
+        <f>N15/N8</f>
         <v>11.363065724739046</v>
       </c>
-      <c r="I15" s="34">
-        <f>H15-K15</f>
+      <c r="L15" s="31">
+        <f>K15-N15</f>
         <v>1.704459858710857</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="15">
-        <f>VLOOKUP(K11,Tableau3[#All],2,FALSE)*K13</f>
+      <c r="M15" s="32"/>
+      <c r="N15" s="15">
+        <f>VLOOKUP(N11,Tableau3[#All],2,FALSE)*N13</f>
         <v>9.6586058660281893</v>
       </c>
-      <c r="O15" s="15">
-        <f>R15/R8</f>
+      <c r="R15" s="15">
+        <f>U15/U8</f>
         <v>9.3286058660281892</v>
       </c>
-      <c r="P15" s="34">
-        <f>O15-R15</f>
+      <c r="S15" s="31">
+        <f>R15-U15</f>
         <v>0.55971635196169167</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="15">
-        <f>VLOOKUP(R11,Tableau3[#All],2,FALSE)*R13</f>
+      <c r="T15" s="32"/>
+      <c r="U15" s="15">
+        <f>VLOOKUP(U11,Tableau3[#All],2,FALSE)*U13</f>
         <v>8.7688895140664975</v>
       </c>
-      <c r="W15" s="15">
-        <f>Z15/Z8</f>
+      <c r="Z15" s="15">
+        <f>AC15/AC8</f>
         <v>4.2352941176470589</v>
       </c>
-      <c r="X15" s="34">
-        <f>W15-Z15</f>
+      <c r="AA15" s="31">
+        <f>Z15-AC15</f>
         <v>0.63529411764705923</v>
       </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="15">
-        <f>VLOOKUP(Z11,Tableau3[#All],2,FALSE)*Z13</f>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="15">
+        <f>VLOOKUP(AC11,Tableau3[#All],2,FALSE)*AC13</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AE15" s="40" t="s">
+      <c r="AH15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="42" t="s">
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH15" s="43"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="AE16" s="17" t="s">
+      <c r="AK15" s="36"/>
+    </row>
+    <row r="16" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AF16" s="16">
-        <f>VLOOKUP(AE16,Tableau3[#All],2,FALSE)</f>
+      <c r="AI16" s="16">
+        <f>VLOOKUP(AH16,Tableau3[#All],2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="AG16" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE16,Tableau2[Current (mA)])</f>
+      <c r="AJ16" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH16,Tableau2[Current (mA)])</f>
         <v>890</v>
       </c>
-      <c r="AH16" s="16" t="s">
+      <c r="AK16" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE17" s="22" t="s">
+    <row r="17" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH17" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-    </row>
-    <row r="18" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W18" s="29" t="s">
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="39"/>
+    </row>
+    <row r="18" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="31"/>
-      <c r="AE18" s="25">
-        <f>AF16*(AG16/1000)</f>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="24"/>
+      <c r="AH18" s="40">
+        <f>AI16*(AJ16/1000)</f>
         <v>1.335</v>
       </c>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="27" t="s">
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH18" s="28"/>
-    </row>
-    <row r="19" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W19" s="38" t="s">
+      <c r="AK18" s="43"/>
+    </row>
+    <row r="19" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z19" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="12" t="s">
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="AC19" s="19">
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W20" s="36" t="s">
+    <row r="20" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z20" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="18">
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="23:34" x14ac:dyDescent="0.3">
-      <c r="W21" s="8" t="s">
+    <row r="21" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z21" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="7" t="s">
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE21" s="40" t="s">
+      <c r="AH21" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="42" t="s">
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH21" s="43"/>
-    </row>
-    <row r="22" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W22" s="14" t="s">
+      <c r="AK21" s="36"/>
+    </row>
+    <row r="22" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z22" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="14" t="s">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AE22" s="17" t="s">
+      <c r="AH22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AF22" s="16">
-        <f>VLOOKUP(AE22,Tableau3[#All],2,FALSE)</f>
+      <c r="AI22" s="16">
+        <f>VLOOKUP(AH22,Tableau3[#All],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="AG22" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE22,Tableau2[Current (mA)])</f>
+      <c r="AJ22" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH22,Tableau2[Current (mA)])</f>
         <v>50</v>
       </c>
-      <c r="AH22" s="16" t="s">
+      <c r="AK22" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="23:34" x14ac:dyDescent="0.3">
-      <c r="W23" s="9" t="s">
+    <row r="23" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="9" t="s">
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE23" s="22" t="s">
+      <c r="AH23" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="24"/>
-    </row>
-    <row r="24" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W24" s="15">
-        <f>W26/VLOOKUP(W22,Tableau3[#All],2,FALSE)</f>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="39"/>
+    </row>
+    <row r="24" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z24" s="15">
+        <f>Z26/VLOOKUP(Z22,Tableau3[#All],2,FALSE)</f>
         <v>0.26383399209486164</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z22,Tableau2[Current (mA)])/1000</f>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC22,Tableau2[Current (mA)])/1000</f>
         <v>0.89</v>
       </c>
-      <c r="AE24" s="25">
-        <f>AF22*(AG22/1000)</f>
+      <c r="AH24" s="40">
+        <f>AI22*(AJ22/1000)</f>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="27" t="s">
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH24" s="28"/>
-    </row>
-    <row r="25" spans="23:34" x14ac:dyDescent="0.3">
-      <c r="W25" s="10" t="s">
+      <c r="AK24" s="43"/>
+    </row>
+    <row r="25" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X25" s="32" t="s">
+      <c r="AA25" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="10" t="s">
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W26" s="15">
-        <f>Z26/Z19</f>
+    <row r="26" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z26" s="15">
+        <f>AC26/AC19</f>
         <v>1.451086956521739</v>
       </c>
-      <c r="X26" s="34">
-        <f>W26-Z26</f>
+      <c r="AA26" s="31">
+        <f>Z26-AC26</f>
         <v>0.11608695652173906</v>
       </c>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="15">
-        <f>VLOOKUP(Z22,Tableau3[#All],2,FALSE)*Z24</f>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="15">
+        <f>VLOOKUP(AC22,Tableau3[#All],2,FALSE)*AC24</f>
         <v>1.335</v>
       </c>
     </row>
-    <row r="27" spans="23:34" x14ac:dyDescent="0.3">
-      <c r="AE27" s="40" t="s">
+    <row r="27" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="AH27" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="42" t="s">
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH27" s="43"/>
-    </row>
-    <row r="28" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE28" s="17" t="s">
+      <c r="AK27" s="36"/>
+    </row>
+    <row r="28" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH28" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AF28" s="16">
-        <f>VLOOKUP(AE28,Tableau3[#All],2,FALSE)</f>
+      <c r="AI28" s="16">
+        <f>VLOOKUP(AH28,Tableau3[#All],2,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="AG28" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE28,Tableau2[Current (mA)])</f>
+      <c r="AJ28" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH28,Tableau2[Current (mA)])</f>
         <v>680</v>
       </c>
-      <c r="AH28" s="16" t="s">
+      <c r="AK28" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W29" s="29" t="s">
+    <row r="29" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z29" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="31"/>
-      <c r="AE29" s="22" t="s">
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="24"/>
+      <c r="AH29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="24"/>
-    </row>
-    <row r="30" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W30" s="38" t="s">
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="39"/>
+    </row>
+    <row r="30" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="12" t="s">
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="AC30" s="21">
         <v>0.25</v>
       </c>
-      <c r="AE30" s="25">
-        <f>AF28*(AG28/1000)</f>
+      <c r="AH30" s="40">
+        <f>AI28*(AJ28/1000)</f>
         <v>1.2240000000000002</v>
       </c>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="27" t="s">
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH30" s="28"/>
-    </row>
-    <row r="31" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W31" s="36" t="s">
+      <c r="AK30" s="43"/>
+    </row>
+    <row r="31" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="18">
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="18">
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="23:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W32" s="8" t="s">
+    <row r="32" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="7" t="s">
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="20"/>
-      <c r="O33" s="29" t="s">
+    <row r="33" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q33" s="20"/>
+      <c r="R33" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
-      <c r="W33" s="14" t="s">
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="24"/>
+      <c r="Z33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="14" t="s">
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AE33" s="40" t="s">
+      <c r="AH33" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="42" t="s">
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH33" s="43"/>
-    </row>
-    <row r="34" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N34" s="20"/>
-      <c r="O34" s="38" t="s">
+      <c r="AK33" s="36"/>
+    </row>
+    <row r="34" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q34" s="20"/>
+      <c r="R34" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="12" t="s">
+      <c r="S34" s="26"/>
+      <c r="T34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R34" s="19">
-        <f>VLOOKUP(R37,Tableau3[#All],2,FALSE)/VLOOKUP(O37,Tableau3[#All],2,FALSE)</f>
+      <c r="U34" s="19">
+        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="W34" s="9" t="s">
+      <c r="Z34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="9" t="s">
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE34" s="17" t="s">
+      <c r="AH34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AF34" s="16">
-        <f>VLOOKUP(AE34,Tableau3[#All],2,FALSE)</f>
+      <c r="AI34" s="16">
+        <f>VLOOKUP(AH34,Tableau3[#All],2,FALSE)</f>
         <v>3.3</v>
       </c>
-      <c r="AG34" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE34,Tableau2[Current (mA)])</f>
+      <c r="AJ34" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH34,Tableau2[Current (mA)])</f>
         <v>1336</v>
       </c>
-      <c r="AH34" s="16" t="s">
+      <c r="AK34" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N35" s="20"/>
-      <c r="O35" s="36" t="s">
+    <row r="35" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="20"/>
+      <c r="R35" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="18">
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="18">
         <v>1</v>
       </c>
-      <c r="W35" s="15">
-        <f>W37/VLOOKUP(W33,Tableau3[#All],2,FALSE)</f>
+      <c r="Z35" s="15">
+        <f>Z37/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
         <v>4.5454545454545463E-2</v>
       </c>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z33,Tableau2[Current (mA)])/1000</f>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC33,Tableau2[Current (mA)])/1000</f>
         <v>0.05</v>
       </c>
-      <c r="AE35" s="22" t="s">
+      <c r="AH35" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="24"/>
-    </row>
-    <row r="36" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N36" s="20"/>
-      <c r="O36" s="8" t="s">
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="39"/>
+    </row>
+    <row r="36" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q36" s="20"/>
+      <c r="R36" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="7" t="s">
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="Z36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X36" s="32" t="s">
+      <c r="AA36" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="10" t="s">
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE36" s="25">
-        <f>AF34*(AG34/1000)</f>
+      <c r="AH36" s="40">
+        <f>AI34*(AJ34/1000)</f>
         <v>4.4088000000000003</v>
       </c>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="27" t="s">
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH36" s="28"/>
-    </row>
-    <row r="37" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N37" s="20"/>
-      <c r="O37" s="14" t="s">
+      <c r="AK36" s="43"/>
+    </row>
+    <row r="37" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="20"/>
+      <c r="R37" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="14" t="s">
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="W37" s="15">
-        <f>Z37/Z30</f>
+      <c r="Z37" s="15">
+        <f>AC37/AC30</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="X37" s="34">
-        <f>W37-Z37</f>
+      <c r="AA37" s="31">
+        <f>Z37-AC37</f>
         <v>0.11250000000000002</v>
       </c>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="15">
-        <f>VLOOKUP(Z33,Tableau3[#All],2,FALSE)*Z35</f>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="15">
+        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)*AC35</f>
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N38" s="20"/>
-      <c r="O38" s="9" t="s">
+    <row r="38" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q38" s="20"/>
+      <c r="R38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="9" t="s">
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N39" s="20"/>
-      <c r="O39" s="15">
-        <f>O41/VLOOKUP(O37,Tableau3[#All],2,FALSE)</f>
+    <row r="39" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="20"/>
+      <c r="R39" s="15">
+        <f>R41/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="15">
-        <f>AG57/1000</f>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="15">
+        <f>AJ57/1000</f>
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N40" s="20"/>
-      <c r="O40" s="10" t="s">
+    <row r="40" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q40" s="20"/>
+      <c r="R40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="S40" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="10" t="s">
+      <c r="T40" s="30"/>
+      <c r="U40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="W40" s="29" t="s">
+      <c r="Z40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="31"/>
-    </row>
-    <row r="41" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N41" s="20"/>
-      <c r="O41" s="15">
-        <f>R41/R34</f>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="24"/>
+    </row>
+    <row r="41" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q41" s="20"/>
+      <c r="R41" s="15">
+        <f>U41/U34</f>
         <v>0.33</v>
       </c>
-      <c r="P41" s="34">
-        <f>O41-R41</f>
+      <c r="S41" s="31">
+        <f>R41-U41</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="15">
-        <f>VLOOKUP(R37,Tableau3[#All],2,FALSE)*R39</f>
+      <c r="T41" s="32"/>
+      <c r="U41" s="15">
+        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)*U39</f>
         <v>0.3</v>
       </c>
-      <c r="W41" s="38" t="s">
+      <c r="Z41" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="12" t="s">
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z41" s="19">
+      <c r="AC41" s="19">
         <v>0.92</v>
       </c>
     </row>
-    <row r="42" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W42" s="36" t="s">
+    <row r="42" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z42" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="18">
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="W43" s="8" t="s">
+    <row r="43" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Z43" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="7" t="s">
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W44" s="14" t="s">
+    <row r="44" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z44" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="14" t="s">
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="W45" s="9" t="s">
+    <row r="45" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Z45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="9" t="s">
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W46" s="15">
-        <f>W48/VLOOKUP(W44,Tableau3[#All],2,FALSE)</f>
+    <row r="46" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z46" s="15">
+        <f>Z48/VLOOKUP(Z44,Tableau3[#All],2,FALSE)</f>
         <v>0.24189723320158105</v>
       </c>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!Z44,Tableau2[Current (mA)])/1000</f>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC44,Tableau2[Current (mA)])/1000</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="47" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="W47" s="10" t="s">
+    <row r="47" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Z47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="X47" s="32" t="s">
+      <c r="AA47" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="10" t="s">
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W48" s="15">
-        <f>Z48/Z41</f>
+    <row r="48" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z48" s="15">
+        <f>AC48/AC41</f>
         <v>1.3304347826086957</v>
       </c>
-      <c r="X48" s="34">
-        <f>W48-Z48</f>
+      <c r="AA48" s="31">
+        <f>Z48-AC48</f>
         <v>0.10643478260869554</v>
       </c>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="15">
-        <f>VLOOKUP(Z44,Tableau3[#All],2,FALSE)*Z46</f>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="15">
+        <f>VLOOKUP(AC44,Tableau3[#All],2,FALSE)*AC46</f>
         <v>1.2240000000000002</v>
       </c>
     </row>
-    <row r="50" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N50" s="20"/>
-    </row>
-    <row r="51" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N51" s="20"/>
-      <c r="O51" s="29" t="s">
+    <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q50" s="20"/>
+    </row>
+    <row r="51" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q51" s="20"/>
+      <c r="R51" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
-    </row>
-    <row r="52" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N52" s="20"/>
-      <c r="O52" s="38" t="s">
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="24"/>
+    </row>
+    <row r="52" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q52" s="20"/>
+      <c r="R52" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="12" t="s">
+      <c r="S52" s="26"/>
+      <c r="T52" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R52" s="19">
-        <f>VLOOKUP(R55,Tableau3[#All],2,FALSE)/VLOOKUP(O55,Tableau3[#All],2,FALSE)</f>
+      <c r="U52" s="19">
+        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N53" s="20"/>
-      <c r="O53" s="36" t="s">
+    <row r="53" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q53" s="20"/>
+      <c r="R53" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="18">
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="8:34" x14ac:dyDescent="0.3">
-      <c r="N54" s="20"/>
-      <c r="O54" s="8" t="s">
+    <row r="54" spans="11:37" x14ac:dyDescent="0.3">
+      <c r="Q54" s="20"/>
+      <c r="R54" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="7" t="s">
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N55" s="20"/>
-      <c r="O55" s="14" t="s">
+    <row r="55" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q55" s="20"/>
+      <c r="R55" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="14" t="s">
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H56" s="29" t="s">
+    <row r="56" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="31"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="9" t="s">
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="24"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="9" t="s">
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE56" s="40" t="s">
+      <c r="AH56" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="42" t="s">
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH56" s="43"/>
-    </row>
-    <row r="57" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H57" s="38" t="s">
+      <c r="AK56" s="36"/>
+    </row>
+    <row r="57" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="39"/>
-      <c r="J57" s="12" t="s">
+      <c r="L57" s="26"/>
+      <c r="M57" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="19">
+      <c r="N57" s="19">
         <v>0.65</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="15">
-        <f>O59/VLOOKUP(O55,Tableau3[#All],2,FALSE)</f>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="15">
+        <f>R59/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!R55,Tableau2[Current (mA)])/1000</f>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!U55,Tableau2[Current (mA)])/1000</f>
         <v>0.32</v>
       </c>
-      <c r="AE57" s="17" t="s">
+      <c r="AH57" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AF57" s="16">
-        <f>VLOOKUP(AE57,Tableau3[#All],2,FALSE)</f>
+      <c r="AI57" s="16">
+        <f>VLOOKUP(AH57,Tableau3[#All],2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AG57" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE57,Tableau2[Current (mA)])</f>
+      <c r="AJ57" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH57,Tableau2[Current (mA)])</f>
         <v>60</v>
       </c>
-      <c r="AH57" s="16" t="s">
+      <c r="AK57" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H58" s="36" t="s">
+    <row r="58" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="18">
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="18">
         <v>2</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="10" t="s">
+      <c r="Q58" s="20"/>
+      <c r="R58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P58" s="32" t="s">
+      <c r="S58" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="10" t="s">
+      <c r="T58" s="30"/>
+      <c r="U58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE58" s="22" t="s">
+      <c r="AH58" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF58" s="23"/>
-      <c r="AG58" s="23"/>
-      <c r="AH58" s="24"/>
-    </row>
-    <row r="59" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H59" s="8" t="s">
+      <c r="AI58" s="38"/>
+      <c r="AJ58" s="38"/>
+      <c r="AK58" s="39"/>
+    </row>
+    <row r="59" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K59" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N59" s="20"/>
-      <c r="O59" s="15">
-        <f>R59/R52</f>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="15">
+        <f>U59/U52</f>
         <v>1.7600000000000002</v>
       </c>
-      <c r="P59" s="34">
-        <f>O59-R59</f>
+      <c r="S59" s="31">
+        <f>R59-U59</f>
         <v>0.70400000000000018</v>
       </c>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="15">
-        <f>VLOOKUP(R55,Tableau3[#All],2,FALSE)*R57</f>
+      <c r="T59" s="32"/>
+      <c r="U59" s="15">
+        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)*U57</f>
         <v>1.056</v>
       </c>
-      <c r="AE59" s="25">
-        <f>AF57*(AG57/1000)</f>
+      <c r="AH59" s="40">
+        <f>AI57*(AJ57/1000)</f>
         <v>0.3</v>
       </c>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="27" t="s">
+      <c r="AI59" s="41"/>
+      <c r="AJ59" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH59" s="28"/>
-    </row>
-    <row r="60" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="14" t="s">
+      <c r="AK59" s="43"/>
+    </row>
+    <row r="60" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K60" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="14" t="s">
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H61" s="9" t="s">
+      <c r="Q60" s="20"/>
+    </row>
+    <row r="61" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K61" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="N61" s="20"/>
-    </row>
-    <row r="62" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H62" s="15">
-        <f>H64/VLOOKUP(H60,Tableau3[#All],2,FALSE)</f>
+      <c r="Q61" s="20"/>
+    </row>
+    <row r="62" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="15">
+        <f>K64/VLOOKUP(K60,Tableau3[#All],2,FALSE)</f>
         <v>2.6923076923076921E-2</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="15">
-        <f>O83</f>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="15">
+        <f>R83</f>
         <v>0.06</v>
       </c>
-      <c r="N62" s="20"/>
-      <c r="O62" s="29" t="s">
+      <c r="Q62" s="20"/>
+      <c r="R62" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="31"/>
-      <c r="AE62" s="40" t="s">
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="24"/>
+      <c r="AH62" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF62" s="41"/>
-      <c r="AG62" s="42" t="s">
+      <c r="AI62" s="34"/>
+      <c r="AJ62" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH62" s="43"/>
-    </row>
-    <row r="63" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H63" s="10" t="s">
+      <c r="AK62" s="36"/>
+    </row>
+    <row r="63" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="L63" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="10" t="s">
+      <c r="M63" s="30"/>
+      <c r="N63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="N63" s="20"/>
-      <c r="O63" s="38" t="s">
+      <c r="Q63" s="20"/>
+      <c r="R63" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="12" t="s">
+      <c r="S63" s="26"/>
+      <c r="T63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R63" s="19">
-        <f>VLOOKUP(R66,Tableau3[#All],2,FALSE)/VLOOKUP(O66,Tableau3[#All],2,FALSE)</f>
+      <c r="U63" s="19">
+        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
         <v>0.6</v>
       </c>
-      <c r="AE63" s="17" t="s">
+      <c r="AH63" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AF63" s="16">
-        <f>VLOOKUP(AE63,Tableau3[#All],2,FALSE)</f>
+      <c r="AI63" s="16">
+        <f>VLOOKUP(AH63,Tableau3[#All],2,FALSE)</f>
         <v>3.3</v>
       </c>
-      <c r="AG63" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE63,Tableau2[Current (mA)])</f>
+      <c r="AJ63" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH63,Tableau2[Current (mA)])</f>
         <v>320</v>
       </c>
-      <c r="AH63" s="16" t="s">
+      <c r="AK63" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="8:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H64" s="15">
-        <f>K64/K57</f>
+    <row r="64" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="15">
+        <f>N64/N57</f>
         <v>0.64615384615384608</v>
       </c>
-      <c r="I64" s="34">
-        <f>H64-K64</f>
+      <c r="L64" s="31">
+        <f>K64-N64</f>
         <v>0.22615384615384609</v>
       </c>
-      <c r="J64" s="35"/>
-      <c r="K64" s="15">
-        <f>VLOOKUP(K60,Tableau3[#All],2,FALSE)*K62*-1</f>
+      <c r="M64" s="32"/>
+      <c r="N64" s="15">
+        <f>VLOOKUP(N60,Tableau3[#All],2,FALSE)*N62*-1</f>
         <v>0.42</v>
       </c>
-      <c r="N64" s="20"/>
-      <c r="O64" s="36" t="s">
+      <c r="Q64" s="20"/>
+      <c r="R64" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="18">
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="18">
         <v>1</v>
       </c>
-      <c r="AE64" s="22" t="s">
+      <c r="AH64" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF64" s="23"/>
-      <c r="AG64" s="23"/>
-      <c r="AH64" s="24"/>
-    </row>
-    <row r="65" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N65" s="20"/>
-      <c r="O65" s="8" t="s">
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="39"/>
+    </row>
+    <row r="65" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q65" s="20"/>
+      <c r="R65" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="7" t="s">
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE65" s="25">
-        <f>AF63*(AG63/1000)</f>
+      <c r="AH65" s="40">
+        <f>AI63*(AJ63/1000)</f>
         <v>1.056</v>
       </c>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="27" t="s">
+      <c r="AI65" s="41"/>
+      <c r="AJ65" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH65" s="28"/>
-    </row>
-    <row r="66" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N66" s="20"/>
-      <c r="O66" s="14" t="s">
+      <c r="AK65" s="43"/>
+    </row>
+    <row r="66" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q66" s="20"/>
+      <c r="R66" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="14" t="s">
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N67" s="20"/>
-      <c r="O67" s="9" t="s">
+    <row r="67" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q67" s="20"/>
+      <c r="R67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="9" t="s">
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N68" s="20"/>
-      <c r="O68" s="15">
-        <f>O70/VLOOKUP(O66,Tableau3[#All],2,FALSE)</f>
+    <row r="68" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q68" s="20"/>
+      <c r="R68" s="15">
+        <f>R70/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
         <v>5.5E-2</v>
       </c>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!R66,Tableau2[Current (mA)])/1000</f>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!U66,Tableau2[Current (mA)])/1000</f>
         <v>5.5E-2</v>
       </c>
-      <c r="AE68" s="40" t="s">
+      <c r="AH68" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF68" s="41"/>
-      <c r="AG68" s="42" t="s">
+      <c r="AI68" s="34"/>
+      <c r="AJ68" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH68" s="43"/>
-    </row>
-    <row r="69" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N69" s="20"/>
-      <c r="O69" s="10" t="s">
+      <c r="AK68" s="36"/>
+    </row>
+    <row r="69" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q69" s="20"/>
+      <c r="R69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P69" s="32" t="s">
+      <c r="S69" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="10" t="s">
+      <c r="T69" s="30"/>
+      <c r="U69" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AE69" s="17" t="s">
+      <c r="AH69" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AF69" s="16">
-        <f>VLOOKUP(AE69,Tableau3[#All],2,FALSE)</f>
+      <c r="AI69" s="16">
+        <f>VLOOKUP(AH69,Tableau3[#All],2,FALSE)</f>
         <v>3.3</v>
       </c>
-      <c r="AG69" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE69,Tableau2[Current (mA)])</f>
+      <c r="AJ69" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH69,Tableau2[Current (mA)])</f>
         <v>55</v>
       </c>
-      <c r="AH69" s="16" t="s">
+      <c r="AK69" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N70" s="20"/>
-      <c r="O70" s="15">
-        <f>R70/R63</f>
+    <row r="70" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q70" s="20"/>
+      <c r="R70" s="15">
+        <f>U70/U63</f>
         <v>0.30249999999999999</v>
       </c>
-      <c r="P70" s="34">
-        <f>O70-R70</f>
+      <c r="S70" s="31">
+        <f>R70-U70</f>
         <v>0.121</v>
       </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="15">
-        <f>VLOOKUP(R66,Tableau3[#All],2,FALSE)*R68</f>
+      <c r="T70" s="32"/>
+      <c r="U70" s="15">
+        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)*U68</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AH70" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF70" s="23"/>
-      <c r="AG70" s="23"/>
-      <c r="AH70" s="24"/>
-    </row>
-    <row r="71" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N71" s="20"/>
-      <c r="AE71" s="25">
-        <f>AF69*(AG69/1000)</f>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="39"/>
+    </row>
+    <row r="71" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q71" s="20"/>
+      <c r="AH71" s="40">
+        <f>AI69*(AJ69/1000)</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AF71" s="26"/>
-      <c r="AG71" s="27" t="s">
+      <c r="AI71" s="41"/>
+      <c r="AJ71" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH71" s="28"/>
-    </row>
-    <row r="72" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N72" s="20"/>
-    </row>
-    <row r="73" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N73" s="20"/>
-    </row>
-    <row r="74" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N74" s="20"/>
-      <c r="AE74" s="40" t="s">
+      <c r="AK71" s="43"/>
+    </row>
+    <row r="72" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q72" s="20"/>
+    </row>
+    <row r="73" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q73" s="20"/>
+    </row>
+    <row r="74" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q74" s="20"/>
+      <c r="AH74" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AF74" s="41"/>
-      <c r="AG74" s="42" t="s">
+      <c r="AI74" s="34"/>
+      <c r="AJ74" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AH74" s="43"/>
-    </row>
-    <row r="75" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N75" s="20"/>
-      <c r="AE75" s="17" t="s">
+      <c r="AK74" s="36"/>
+    </row>
+    <row r="75" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q75" s="20"/>
+      <c r="AH75" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="AF75" s="16">
-        <f>VLOOKUP(AE75,Tableau3[#All],2,FALSE)</f>
+      <c r="AI75" s="16">
+        <f>VLOOKUP(AH75,Tableau3[#All],2,FALSE)</f>
         <v>-5</v>
       </c>
-      <c r="AG75" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AE75,Tableau2[Current (mA)])</f>
+      <c r="AJ75" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH75,Tableau2[Current (mA)])</f>
         <v>60</v>
       </c>
-      <c r="AH75" s="16" t="s">
+      <c r="AK75" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N76" s="20"/>
-      <c r="AE76" s="22" t="s">
+    <row r="76" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q76" s="20"/>
+      <c r="AH76" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AF76" s="23"/>
-      <c r="AG76" s="23"/>
-      <c r="AH76" s="24"/>
-    </row>
-    <row r="77" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N77" s="20"/>
-      <c r="O77" s="29" t="s">
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="39"/>
+    </row>
+    <row r="77" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q77" s="20"/>
+      <c r="R77" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="31"/>
-      <c r="AE77" s="25">
-        <f>AF75*(AG75/1000)*-1</f>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="24"/>
+      <c r="AH77" s="40">
+        <f>AI75*(AJ75/1000)*-1</f>
         <v>0.3</v>
       </c>
-      <c r="AF77" s="26"/>
-      <c r="AG77" s="27" t="s">
+      <c r="AI77" s="41"/>
+      <c r="AJ77" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AH77" s="28"/>
-    </row>
-    <row r="78" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N78" s="20"/>
-      <c r="O78" s="38" t="s">
+      <c r="AK77" s="43"/>
+    </row>
+    <row r="78" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q78" s="20"/>
+      <c r="R78" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="12" t="s">
+      <c r="S78" s="26"/>
+      <c r="T78" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R78" s="19">
-        <f>VLOOKUP(R81,Tableau3[#All],2,FALSE)/VLOOKUP(O81,Tableau3[#All],2,FALSE)</f>
+      <c r="U78" s="19">
+        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)/VLOOKUP(R81,Tableau3[#All],2,FALSE)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="79" spans="14:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N79" s="20"/>
-      <c r="O79" s="36" t="s">
+    <row r="79" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q79" s="20"/>
+      <c r="R79" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="18">
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="14:34" x14ac:dyDescent="0.3">
-      <c r="N80" s="20"/>
-      <c r="O80" s="8" t="s">
+    <row r="80" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q80" s="20"/>
+      <c r="R80" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="7" t="s">
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N81" s="20"/>
-      <c r="O81" s="14" t="s">
+    <row r="81" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q81" s="20"/>
+      <c r="R81" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="14" t="s">
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N82" s="20"/>
-      <c r="O82" s="9" t="s">
+    <row r="82" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q82" s="20"/>
+      <c r="R82" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="9" t="s">
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N83" s="20"/>
-      <c r="O83" s="15">
-        <f>O85/VLOOKUP(O81,Tableau3[#All],2,FALSE)*-1</f>
+    <row r="83" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q83" s="20"/>
+      <c r="R83" s="15">
+        <f>R85/VLOOKUP(R81,Tableau3[#All],2,FALSE)*-1</f>
         <v>0.06</v>
       </c>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="15">
-        <f>AG75/1000</f>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="15">
+        <f>AJ75/1000</f>
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="14:18" x14ac:dyDescent="0.3">
-      <c r="N84" s="20"/>
-      <c r="O84" s="10" t="s">
+    <row r="84" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q84" s="20"/>
+      <c r="R84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P84" s="32" t="s">
+      <c r="S84" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="10" t="s">
+      <c r="T84" s="30"/>
+      <c r="U84" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="14:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N85" s="20"/>
-      <c r="O85" s="15">
-        <f>R85/R78</f>
+    <row r="85" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q85" s="20"/>
+      <c r="R85" s="15">
+        <f>U85/U78</f>
         <v>0.42</v>
       </c>
-      <c r="P85" s="34">
-        <f>O85-R85</f>
+      <c r="S85" s="31">
+        <f>R85-U85</f>
         <v>0.12</v>
       </c>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="15">
-        <f>VLOOKUP(R81,Tableau3[#All],2,FALSE)*R83*-1</f>
+      <c r="T85" s="32"/>
+      <c r="U85" s="15">
+        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)*U83*-1</f>
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AE29:AH29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AE68:AF68"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AE77:AF77"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AE74:AF74"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AE76:AH76"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AE71:AF71"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AJ71:AK71"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AH77:AI77"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AJ59:AK59"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AH76:AK76"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH70:AK70"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AJ56:AK56"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AJ68:AK68"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AJ62:AK62"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ65:AK65"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W19:X19 W30:X30 W8:X8 O8:P8 O63:P63 O52:P52 W41:X41 O34:P34 O78:P78 H8:I8 H57:I57 B8:C8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z19:AA19 Z30:AA30 Z8:AA8 R8:S8 R63:S63 R52:S52 Z41:AA41 R34:S34 R78:S78 K8:L8 K57:L57 E8:F8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
       <formula1>REG_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W22 Z22 W33 Z33 W11 Z11 O11 R11 O66 R66 O55 R55 W44 Z44 O37 R37 O81 R81 AE10 AE34 AE16 AE22 AE28 AE57 AE75 AE4 AE63 AE69 H11 K11 H60 K60 B11 E11" xr:uid="{171558F4-673C-494B-85C2-DAD3DB31C89D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22 AC22 Z33 AC33 Z11 AC11 R11 U11 R66 U66 R55 U55 Z44 AC44 R37 U37 R81 U81 AH10 AH34 AH16 AH22 AH28 AH57 AH75 AH4 AH63 AH69 K11 N11 K60 N60 E11 H11" xr:uid="{171558F4-673C-494B-85C2-DAD3DB31C89D}">
       <formula1>V_NET_LIST</formula1>
     </dataValidation>
   </dataValidations>

--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093EAB2-E991-4644-B529-E9FD0B0D74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DE95A-B3CB-4CA4-B374-096979C512E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="REG_TYPE">DIMENSIONNEMENT!$B$6:$B$11</definedName>
     <definedName name="V_NET_LIST">DIMENSIONNEMENT!$D$7:$D$18</definedName>
     <definedName name="V_NET_VOLTAGE">DIMENSIONNEMENT!$E$7:$E$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Feuil3!$D$1:$AK$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="152">
   <si>
     <t>IC</t>
   </si>
@@ -496,13 +497,19 @@
   </si>
   <si>
     <t>TPS51200</t>
+  </si>
+  <si>
+    <t>EFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +545,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,18 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,10 +838,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -854,9 +873,17 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,18 +892,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,16 +906,22 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,20 +933,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3271,17 +3292,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
-  <dimension ref="E3:AK85"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="E3:AK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AK85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" customWidth="1"/>
     <col min="7" max="7" width="4.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="10" width="5.77734375" customWidth="1"/>
@@ -3305,14 +3328,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH3" s="33" t="s">
+      <c r="AH3" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="35" t="s">
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK3" s="36"/>
+      <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="5:37" x14ac:dyDescent="0.3">
       <c r="AH4" s="17" t="s">
@@ -3339,77 +3362,77 @@
       <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH6" s="40">
+      <c r="AH6" s="20">
         <f>AI4*(AJ4/1000)</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="42" t="s">
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK6" s="43"/>
+      <c r="AK6" s="23"/>
     </row>
     <row r="7" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="K7" s="22" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="K7" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="R7" s="22" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="R7" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
-      <c r="Z7" s="22" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+      <c r="Z7" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="24"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="N8" s="19">
         <v>0.85</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="26"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="U8" s="19">
         <v>0.94</v>
       </c>
-      <c r="Z8" s="25" t="s">
+      <c r="Z8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="12" t="s">
         <v>123</v>
       </c>
@@ -3418,46 +3441,46 @@
       </c>
     </row>
     <row r="9" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="18">
         <v>5</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
       <c r="U9" s="18">
         <v>4</v>
       </c>
-      <c r="Z9" s="27" t="s">
+      <c r="Z9" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
       <c r="AC9" s="18">
         <v>4</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AH9" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="35" t="s">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK9" s="36"/>
+      <c r="AK9" s="41"/>
     </row>
     <row r="10" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E10" s="8" t="s">
@@ -3580,46 +3603,46 @@
       <c r="AC12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AH12" s="40">
+      <c r="AH12" s="20">
         <f>AI10*(AJ10/1000)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="42" t="s">
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK12" s="43"/>
+      <c r="AK12" s="23"/>
     </row>
     <row r="13" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="15">
         <f>E15/VLOOKUP(E11,Tableau3[#All],2,FALSE)</f>
-        <v>4.3003841487872032</v>
+        <v>4.3011663765719339</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="15">
         <f>SUM(AJ4/1000,K13,K62)</f>
-        <v>4.3003841487872032</v>
+        <v>4.3011663765719339</v>
       </c>
       <c r="K13" s="15">
         <f>K15/VLOOKUP(K11,Tableau3[#All],2,FALSE)</f>
-        <v>0.47346107186412695</v>
+        <v>0.4742432996488577</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="15">
         <f>SUM(R13,R39)</f>
-        <v>1.7561101574596709</v>
+        <v>1.7590115114248539</v>
       </c>
       <c r="R13" s="15">
         <f>R15/VLOOKUP(R11,Tableau3[#All],2,FALSE)</f>
-        <v>1.6961101574596709</v>
+        <v>1.6990115114248538</v>
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="15">
         <f>SUM(Z35,Z24,Z46,Z13,AJ34/1000)</f>
-        <v>2.6572392466868173</v>
+        <v>2.6617847012322713</v>
       </c>
       <c r="Z13" s="15">
         <f>Z15/VLOOKUP(Z11,Tableau3[#All],2,FALSE)</f>
@@ -3636,40 +3659,40 @@
       <c r="E14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="30"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T14" s="30"/>
+      <c r="T14" s="28"/>
       <c r="U14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA14" s="29" t="s">
+      <c r="AA14" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="30"/>
+      <c r="AB14" s="28"/>
       <c r="AC14" s="10" t="s">
         <v>130</v>
       </c>
@@ -3677,64 +3700,64 @@
     <row r="15" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="15">
         <f>H15/H8</f>
-        <v>103.20921957089288</v>
-      </c>
-      <c r="F15" s="31">
+        <v>103.22799303772641</v>
+      </c>
+      <c r="F15" s="29">
         <f>E15-H15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="15">
         <f>VLOOKUP(H11,Tableau3[#All],2,FALSE)*H13</f>
-        <v>103.20921957089288</v>
+        <v>103.22799303772641</v>
       </c>
       <c r="K15" s="15">
         <f>N15/N8</f>
-        <v>11.363065724739046</v>
-      </c>
-      <c r="L15" s="31">
+        <v>11.381839191572585</v>
+      </c>
+      <c r="L15" s="29">
         <f>K15-N15</f>
-        <v>1.704459858710857</v>
-      </c>
-      <c r="M15" s="32"/>
+        <v>1.7072758787358886</v>
+      </c>
+      <c r="M15" s="30"/>
       <c r="N15" s="15">
         <f>VLOOKUP(N11,Tableau3[#All],2,FALSE)*N13</f>
-        <v>9.6586058660281893</v>
+        <v>9.6745633128366961</v>
       </c>
       <c r="R15" s="15">
         <f>U15/U8</f>
-        <v>9.3286058660281892</v>
-      </c>
-      <c r="S15" s="31">
+        <v>9.3445633128366961</v>
+      </c>
+      <c r="S15" s="29">
         <f>R15-U15</f>
-        <v>0.55971635196169167</v>
-      </c>
-      <c r="T15" s="32"/>
+        <v>0.56067379877020151</v>
+      </c>
+      <c r="T15" s="30"/>
       <c r="U15" s="15">
         <f>VLOOKUP(U11,Tableau3[#All],2,FALSE)*U13</f>
-        <v>8.7688895140664975</v>
+        <v>8.7838895140664945</v>
       </c>
       <c r="Z15" s="15">
         <f>AC15/AC8</f>
         <v>4.2352941176470589</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="29">
         <f>Z15-AC15</f>
         <v>0.63529411764705923</v>
       </c>
-      <c r="AB15" s="32"/>
+      <c r="AB15" s="30"/>
       <c r="AC15" s="15">
         <f>VLOOKUP(AC11,Tableau3[#All],2,FALSE)*AC13</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AH15" s="33" t="s">
+      <c r="AH15" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="35" t="s">
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK15" s="36"/>
+      <c r="AK15" s="41"/>
     </row>
     <row r="16" spans="5:37" x14ac:dyDescent="0.3">
       <c r="AH16" s="17" t="s">
@@ -3752,7 +3775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH17" s="37" t="s">
         <v>124</v>
       </c>
@@ -3760,28 +3783,28 @@
       <c r="AJ17" s="38"/>
       <c r="AK17" s="39"/>
     </row>
-    <row r="18" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z18" s="22" t="s">
+    <row r="18" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z18" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="24"/>
-      <c r="AH18" s="40">
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="26"/>
+      <c r="AH18" s="20">
         <f>AI16*(AJ16/1000)</f>
         <v>1.335</v>
       </c>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="42" t="s">
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK18" s="43"/>
-    </row>
-    <row r="19" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z19" s="25" t="s">
+      <c r="AK18" s="23"/>
+    </row>
+    <row r="19" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z19" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" s="26"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="12" t="s">
         <v>123</v>
       </c>
@@ -3789,17 +3812,17 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z20" s="27" t="s">
+    <row r="20" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z20" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
       <c r="AC20" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="26:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:37" x14ac:dyDescent="0.3">
       <c r="Z21" s="8" t="s">
         <v>133</v>
       </c>
@@ -3808,16 +3831,16 @@
       <c r="AC21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AH21" s="33" t="s">
+      <c r="AH21" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="35" t="s">
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK21" s="36"/>
-    </row>
-    <row r="22" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK21" s="41"/>
+    </row>
+    <row r="22" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z22" s="14" t="s">
         <v>145</v>
       </c>
@@ -3841,7 +3864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="26:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:37" x14ac:dyDescent="0.3">
       <c r="Z23" s="9" t="s">
         <v>127</v>
       </c>
@@ -3857,7 +3880,21 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="39"/>
     </row>
-    <row r="24" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="45">
+        <f>SUM(AH6,AH12,AH18,AH24,AH30,AH36,AH59,AH65,AH71,AH77)</f>
+        <v>103.64279999999997</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="43">
+        <f>F24/F25</f>
+        <v>0.95879247027843939</v>
+      </c>
       <c r="Z24" s="15">
         <f>Z26/VLOOKUP(Z22,Tableau3[#All],2,FALSE)</f>
         <v>0.26383399209486164</v>
@@ -3868,54 +3905,62 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC22,Tableau2[Current (mA)])/1000</f>
         <v>0.89</v>
       </c>
-      <c r="AH24" s="40">
+      <c r="AH24" s="20">
         <f>AI22*(AJ22/1000)</f>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="42" t="s">
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK24" s="43"/>
-    </row>
-    <row r="25" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="AK24" s="23"/>
+    </row>
+    <row r="25" spans="5:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="E25" s="44"/>
+      <c r="F25" s="46">
+        <f>SUM(F24,L15,S15,AA15,AA26,AA37,S41,AA48,S59,L64,S70,S85)</f>
+        <v>108.09721938043739</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>139</v>
+      </c>
       <c r="Z25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AA25" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="AB25" s="30"/>
+      <c r="AB25" s="28"/>
       <c r="AC25" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z26" s="15">
         <f>AC26/AC19</f>
         <v>1.451086956521739</v>
       </c>
-      <c r="AA26" s="31">
+      <c r="AA26" s="29">
         <f>Z26-AC26</f>
         <v>0.11608695652173906</v>
       </c>
-      <c r="AB26" s="32"/>
+      <c r="AB26" s="30"/>
       <c r="AC26" s="15">
         <f>VLOOKUP(AC22,Tableau3[#All],2,FALSE)*AC24</f>
         <v>1.335</v>
       </c>
     </row>
-    <row r="27" spans="26:37" x14ac:dyDescent="0.3">
-      <c r="AH27" s="33" t="s">
+    <row r="27" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH27" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="35" t="s">
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK27" s="36"/>
-    </row>
-    <row r="28" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK27" s="41"/>
+    </row>
+    <row r="28" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH28" s="17" t="s">
         <v>103</v>
       </c>
@@ -3931,13 +3976,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z29" s="22" t="s">
+    <row r="29" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q29" s="42"/>
+      <c r="Z29" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="24"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="26"/>
       <c r="AH29" s="37" t="s">
         <v>124</v>
       </c>
@@ -3945,38 +3991,42 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="39"/>
     </row>
-    <row r="30" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z30" s="25" t="s">
+    <row r="30" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="42"/>
+      <c r="Z30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AA30" s="26"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AC30" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="AH30" s="40">
+      <c r="AC30" s="19">
+        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="AH30" s="20">
         <f>AI28*(AJ28/1000)</f>
         <v>1.2240000000000002</v>
       </c>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="42" t="s">
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK30" s="43"/>
-    </row>
-    <row r="31" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z31" s="27" t="s">
+      <c r="AK30" s="23"/>
+    </row>
+    <row r="31" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="42"/>
+      <c r="Z31" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
       <c r="AC31" s="18">
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="26:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="42"/>
       <c r="Z32" s="8" t="s">
         <v>133</v>
       </c>
@@ -3987,13 +4037,13 @@
       </c>
     </row>
     <row r="33" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q33" s="20"/>
-      <c r="R33" s="22" t="s">
+      <c r="Q33" s="42"/>
+      <c r="R33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="24"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="26"/>
       <c r="Z33" s="14" t="s">
         <v>95</v>
       </c>
@@ -4002,21 +4052,21 @@
       <c r="AC33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AH33" s="33" t="s">
+      <c r="AH33" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="35" t="s">
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK33" s="36"/>
+      <c r="AK33" s="41"/>
     </row>
     <row r="34" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q34" s="20"/>
-      <c r="R34" s="25" t="s">
+      <c r="Q34" s="42"/>
+      <c r="R34" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="S34" s="26"/>
+      <c r="S34" s="34"/>
       <c r="T34" s="12" t="s">
         <v>123</v>
       </c>
@@ -4048,18 +4098,18 @@
       </c>
     </row>
     <row r="35" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q35" s="20"/>
-      <c r="R35" s="27" t="s">
+      <c r="Q35" s="42"/>
+      <c r="R35" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
       <c r="U35" s="18">
         <v>1</v>
       </c>
       <c r="Z35" s="15">
         <f>Z37/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
-        <v>4.5454545454545463E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
@@ -4075,7 +4125,7 @@
       <c r="AK35" s="39"/>
     </row>
     <row r="36" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q36" s="20"/>
+      <c r="Q36" s="42"/>
       <c r="R36" s="8" t="s">
         <v>133</v>
       </c>
@@ -4087,25 +4137,25 @@
       <c r="Z36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA36" s="29" t="s">
+      <c r="AA36" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="AB36" s="30"/>
+      <c r="AB36" s="28"/>
       <c r="AC36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AH36" s="40">
+      <c r="AH36" s="20">
         <f>AI34*(AJ34/1000)</f>
         <v>4.4088000000000003</v>
       </c>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="42" t="s">
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK36" s="43"/>
+      <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q37" s="20"/>
+      <c r="Q37" s="42"/>
       <c r="R37" s="14" t="s">
         <v>145</v>
       </c>
@@ -4116,20 +4166,20 @@
       </c>
       <c r="Z37" s="15">
         <f>AC37/AC30</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AA37" s="31">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AA37" s="29">
         <f>Z37-AC37</f>
-        <v>0.11250000000000002</v>
-      </c>
-      <c r="AB37" s="32"/>
+        <v>0.1275</v>
+      </c>
+      <c r="AB37" s="30"/>
       <c r="AC37" s="15">
         <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)*AC35</f>
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
     <row r="38" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="42"/>
       <c r="R38" s="9" t="s">
         <v>127</v>
       </c>
@@ -4140,7 +4190,7 @@
       </c>
     </row>
     <row r="39" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q39" s="20"/>
+      <c r="Q39" s="42"/>
       <c r="R39" s="15">
         <f>R41/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
         <v>6.0000000000000005E-2</v>
@@ -4153,43 +4203,43 @@
       </c>
     </row>
     <row r="40" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q40" s="20"/>
+      <c r="Q40" s="42"/>
       <c r="R40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="29" t="s">
+      <c r="S40" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T40" s="30"/>
+      <c r="T40" s="28"/>
       <c r="U40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Z40" s="22" t="s">
+      <c r="Z40" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="24"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="26"/>
     </row>
     <row r="41" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="42"/>
       <c r="R41" s="15">
         <f>U41/U34</f>
         <v>0.33</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="29">
         <f>R41-U41</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="T41" s="32"/>
+      <c r="T41" s="30"/>
       <c r="U41" s="15">
         <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)*U39</f>
         <v>0.3</v>
       </c>
-      <c r="Z41" s="25" t="s">
+      <c r="Z41" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AA41" s="26"/>
+      <c r="AA41" s="34"/>
       <c r="AB41" s="12" t="s">
         <v>123</v>
       </c>
@@ -4198,16 +4248,18 @@
       </c>
     </row>
     <row r="42" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z42" s="27" t="s">
+      <c r="Q42" s="42"/>
+      <c r="Z42" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
       <c r="AC42" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q43" s="42"/>
       <c r="Z43" s="8" t="s">
         <v>133</v>
       </c>
@@ -4218,6 +4270,7 @@
       </c>
     </row>
     <row r="44" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q44" s="42"/>
       <c r="Z44" s="14" t="s">
         <v>145</v>
       </c>
@@ -4228,6 +4281,7 @@
       </c>
     </row>
     <row r="45" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q45" s="42"/>
       <c r="Z45" s="9" t="s">
         <v>127</v>
       </c>
@@ -4238,6 +4292,7 @@
       </c>
     </row>
     <row r="46" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q46" s="42"/>
       <c r="Z46" s="15">
         <f>Z48/VLOOKUP(Z44,Tableau3[#All],2,FALSE)</f>
         <v>0.24189723320158105</v>
@@ -4250,50 +4305,55 @@
       </c>
     </row>
     <row r="47" spans="17:37" x14ac:dyDescent="0.3">
+      <c r="Q47" s="42"/>
       <c r="Z47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA47" s="29" t="s">
+      <c r="AA47" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="AB47" s="30"/>
+      <c r="AB47" s="28"/>
       <c r="AC47" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q48" s="42"/>
       <c r="Z48" s="15">
         <f>AC48/AC41</f>
         <v>1.3304347826086957</v>
       </c>
-      <c r="AA48" s="31">
+      <c r="AA48" s="29">
         <f>Z48-AC48</f>
         <v>0.10643478260869554</v>
       </c>
-      <c r="AB48" s="32"/>
+      <c r="AB48" s="30"/>
       <c r="AC48" s="15">
         <f>VLOOKUP(AC44,Tableau3[#All],2,FALSE)*AC46</f>
         <v>1.2240000000000002</v>
       </c>
     </row>
+    <row r="49" spans="11:37" x14ac:dyDescent="0.3">
+      <c r="Q49" s="42"/>
+    </row>
     <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q50" s="20"/>
+      <c r="Q50" s="42"/>
     </row>
     <row r="51" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q51" s="20"/>
-      <c r="R51" s="22" t="s">
+      <c r="Q51" s="42"/>
+      <c r="R51" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="24"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="26"/>
     </row>
     <row r="52" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q52" s="20"/>
-      <c r="R52" s="25" t="s">
+      <c r="Q52" s="42"/>
+      <c r="R52" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="S52" s="26"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="12" t="s">
         <v>123</v>
       </c>
@@ -4303,18 +4363,18 @@
       </c>
     </row>
     <row r="53" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q53" s="20"/>
-      <c r="R53" s="27" t="s">
+      <c r="Q53" s="42"/>
+      <c r="R53" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
       <c r="U53" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="Q54" s="20"/>
+      <c r="Q54" s="42"/>
       <c r="R54" s="8" t="s">
         <v>133</v>
       </c>
@@ -4325,7 +4385,7 @@
       </c>
     </row>
     <row r="55" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q55" s="20"/>
+      <c r="Q55" s="42"/>
       <c r="R55" s="14" t="s">
         <v>145</v>
       </c>
@@ -4336,13 +4396,13 @@
       </c>
     </row>
     <row r="56" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="24"/>
-      <c r="Q56" s="20"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="Q56" s="42"/>
       <c r="R56" s="9" t="s">
         <v>127</v>
       </c>
@@ -4351,27 +4411,27 @@
       <c r="U56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AH56" s="33" t="s">
+      <c r="AH56" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="35" t="s">
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK56" s="36"/>
+      <c r="AK56" s="41"/>
     </row>
     <row r="57" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K57" s="25" t="s">
+      <c r="K57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L57" s="26"/>
+      <c r="L57" s="34"/>
       <c r="M57" s="12" t="s">
         <v>123</v>
       </c>
       <c r="N57" s="19">
         <v>0.65</v>
       </c>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="42"/>
       <c r="R57" s="15">
         <f>R59/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
         <v>0.32000000000000006</v>
@@ -4398,22 +4458,22 @@
       </c>
     </row>
     <row r="58" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K58" s="27" t="s">
+      <c r="K58" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="18">
         <v>2</v>
       </c>
-      <c r="Q58" s="20"/>
+      <c r="Q58" s="42"/>
       <c r="R58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S58" s="29" t="s">
+      <c r="S58" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T58" s="30"/>
+      <c r="T58" s="28"/>
       <c r="U58" s="10" t="s">
         <v>130</v>
       </c>
@@ -4433,29 +4493,29 @@
       <c r="N59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q59" s="20"/>
+      <c r="Q59" s="42"/>
       <c r="R59" s="15">
         <f>U59/U52</f>
         <v>1.7600000000000002</v>
       </c>
-      <c r="S59" s="31">
+      <c r="S59" s="29">
         <f>R59-U59</f>
         <v>0.70400000000000018</v>
       </c>
-      <c r="T59" s="32"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="15">
         <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)*U57</f>
         <v>1.056</v>
       </c>
-      <c r="AH59" s="40">
+      <c r="AH59" s="20">
         <f>AI57*(AJ57/1000)</f>
         <v>0.3</v>
       </c>
-      <c r="AI59" s="41"/>
-      <c r="AJ59" s="42" t="s">
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK59" s="43"/>
+      <c r="AK59" s="23"/>
     </row>
     <row r="60" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K60" s="14" t="s">
@@ -4466,7 +4526,7 @@
       <c r="N60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q60" s="20"/>
+      <c r="Q60" s="42"/>
     </row>
     <row r="61" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K61" s="9" t="s">
@@ -4477,7 +4537,7 @@
       <c r="N61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="Q61" s="20"/>
+      <c r="Q61" s="42"/>
     </row>
     <row r="62" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K62" s="15">
@@ -4490,38 +4550,38 @@
         <f>R83</f>
         <v>0.06</v>
       </c>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="22" t="s">
+      <c r="Q62" s="42"/>
+      <c r="R62" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="24"/>
-      <c r="AH62" s="33" t="s">
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="26"/>
+      <c r="AH62" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="35" t="s">
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK62" s="36"/>
+      <c r="AK62" s="41"/>
     </row>
     <row r="63" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M63" s="30"/>
+      <c r="M63" s="28"/>
       <c r="N63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="25" t="s">
+      <c r="Q63" s="42"/>
+      <c r="R63" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="26"/>
+      <c r="S63" s="34"/>
       <c r="T63" s="12" t="s">
         <v>123</v>
       </c>
@@ -4549,21 +4609,21 @@
         <f>N64/N57</f>
         <v>0.64615384615384608</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="29">
         <f>K64-N64</f>
         <v>0.22615384615384609</v>
       </c>
-      <c r="M64" s="32"/>
+      <c r="M64" s="30"/>
       <c r="N64" s="15">
         <f>VLOOKUP(N60,Tableau3[#All],2,FALSE)*N62*-1</f>
         <v>0.42</v>
       </c>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="27" t="s">
+      <c r="Q64" s="42"/>
+      <c r="R64" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
       <c r="U64" s="18">
         <v>1</v>
       </c>
@@ -4575,7 +4635,7 @@
       <c r="AK64" s="39"/>
     </row>
     <row r="65" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q65" s="20"/>
+      <c r="Q65" s="42"/>
       <c r="R65" s="8" t="s">
         <v>133</v>
       </c>
@@ -4584,18 +4644,18 @@
       <c r="U65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AH65" s="40">
+      <c r="AH65" s="20">
         <f>AI63*(AJ63/1000)</f>
         <v>1.056</v>
       </c>
-      <c r="AI65" s="41"/>
-      <c r="AJ65" s="42" t="s">
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK65" s="43"/>
+      <c r="AK65" s="23"/>
     </row>
     <row r="66" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q66" s="20"/>
+      <c r="Q66" s="42"/>
       <c r="R66" s="14" t="s">
         <v>145</v>
       </c>
@@ -4606,7 +4666,7 @@
       </c>
     </row>
     <row r="67" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q67" s="20"/>
+      <c r="Q67" s="42"/>
       <c r="R67" s="9" t="s">
         <v>127</v>
       </c>
@@ -4617,7 +4677,7 @@
       </c>
     </row>
     <row r="68" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q68" s="20"/>
+      <c r="Q68" s="42"/>
       <c r="R68" s="15">
         <f>R70/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
         <v>5.5E-2</v>
@@ -4628,24 +4688,24 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!U66,Tableau2[Current (mA)])/1000</f>
         <v>5.5E-2</v>
       </c>
-      <c r="AH68" s="33" t="s">
+      <c r="AH68" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI68" s="34"/>
-      <c r="AJ68" s="35" t="s">
+      <c r="AI68" s="36"/>
+      <c r="AJ68" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK68" s="36"/>
+      <c r="AK68" s="41"/>
     </row>
     <row r="69" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q69" s="20"/>
+      <c r="Q69" s="42"/>
       <c r="R69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S69" s="29" t="s">
+      <c r="S69" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T69" s="30"/>
+      <c r="T69" s="28"/>
       <c r="U69" s="10" t="s">
         <v>130</v>
       </c>
@@ -4665,16 +4725,16 @@
       </c>
     </row>
     <row r="70" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q70" s="20"/>
+      <c r="Q70" s="42"/>
       <c r="R70" s="15">
         <f>U70/U63</f>
         <v>0.30249999999999999</v>
       </c>
-      <c r="S70" s="31">
+      <c r="S70" s="29">
         <f>R70-U70</f>
         <v>0.121</v>
       </c>
-      <c r="T70" s="32"/>
+      <c r="T70" s="30"/>
       <c r="U70" s="15">
         <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)*U68</f>
         <v>0.18149999999999999</v>
@@ -4687,36 +4747,36 @@
       <c r="AK70" s="39"/>
     </row>
     <row r="71" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q71" s="20"/>
-      <c r="AH71" s="40">
+      <c r="Q71" s="42"/>
+      <c r="AH71" s="20">
         <f>AI69*(AJ69/1000)</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AI71" s="41"/>
-      <c r="AJ71" s="42" t="s">
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK71" s="43"/>
+      <c r="AK71" s="23"/>
     </row>
     <row r="72" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q72" s="20"/>
+      <c r="Q72" s="42"/>
     </row>
     <row r="73" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q73" s="20"/>
+      <c r="Q73" s="42"/>
     </row>
     <row r="74" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q74" s="20"/>
-      <c r="AH74" s="33" t="s">
+      <c r="Q74" s="42"/>
+      <c r="AH74" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AI74" s="34"/>
-      <c r="AJ74" s="35" t="s">
+      <c r="AI74" s="36"/>
+      <c r="AJ74" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AK74" s="36"/>
+      <c r="AK74" s="41"/>
     </row>
     <row r="75" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q75" s="20"/>
+      <c r="Q75" s="42"/>
       <c r="AH75" s="17" t="s">
         <v>118</v>
       </c>
@@ -4733,7 +4793,7 @@
       </c>
     </row>
     <row r="76" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q76" s="20"/>
+      <c r="Q76" s="42"/>
       <c r="AH76" s="37" t="s">
         <v>124</v>
       </c>
@@ -4742,29 +4802,29 @@
       <c r="AK76" s="39"/>
     </row>
     <row r="77" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q77" s="20"/>
-      <c r="R77" s="22" t="s">
+      <c r="Q77" s="42"/>
+      <c r="R77" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="24"/>
-      <c r="AH77" s="40">
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="26"/>
+      <c r="AH77" s="20">
         <f>AI75*(AJ75/1000)*-1</f>
         <v>0.3</v>
       </c>
-      <c r="AI77" s="41"/>
-      <c r="AJ77" s="42" t="s">
+      <c r="AI77" s="21"/>
+      <c r="AJ77" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK77" s="43"/>
+      <c r="AK77" s="23"/>
     </row>
     <row r="78" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q78" s="20"/>
-      <c r="R78" s="25" t="s">
+      <c r="Q78" s="42"/>
+      <c r="R78" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="S78" s="26"/>
+      <c r="S78" s="34"/>
       <c r="T78" s="12" t="s">
         <v>123</v>
       </c>
@@ -4774,18 +4834,18 @@
       </c>
     </row>
     <row r="79" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q79" s="20"/>
-      <c r="R79" s="27" t="s">
+      <c r="Q79" s="42"/>
+      <c r="R79" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
       <c r="U79" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q80" s="20"/>
+      <c r="Q80" s="42"/>
       <c r="R80" s="8" t="s">
         <v>133</v>
       </c>
@@ -4796,7 +4856,7 @@
       </c>
     </row>
     <row r="81" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q81" s="20"/>
+      <c r="Q81" s="42"/>
       <c r="R81" s="14" t="s">
         <v>135</v>
       </c>
@@ -4807,7 +4867,7 @@
       </c>
     </row>
     <row r="82" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q82" s="20"/>
+      <c r="Q82" s="42"/>
       <c r="R82" s="9" t="s">
         <v>127</v>
       </c>
@@ -4818,7 +4878,7 @@
       </c>
     </row>
     <row r="83" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q83" s="20"/>
+      <c r="Q83" s="42"/>
       <c r="R83" s="15">
         <f>R85/VLOOKUP(R81,Tableau3[#All],2,FALSE)*-1</f>
         <v>0.06</v>
@@ -4831,59 +4891,105 @@
       </c>
     </row>
     <row r="84" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q84" s="20"/>
+      <c r="Q84" s="42"/>
       <c r="R84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="S84" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T84" s="30"/>
+      <c r="T84" s="28"/>
       <c r="U84" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q85" s="20"/>
+      <c r="Q85" s="42"/>
       <c r="R85" s="15">
         <f>U85/U78</f>
         <v>0.42</v>
       </c>
-      <c r="S85" s="31">
+      <c r="S85" s="29">
         <f>R85-U85</f>
         <v>0.12</v>
       </c>
-      <c r="T85" s="32"/>
+      <c r="T85" s="30"/>
       <c r="U85" s="15">
         <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)*U83*-1</f>
         <v>0.3</v>
       </c>
     </row>
+    <row r="86" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q86" s="42"/>
+    </row>
+    <row r="87" spans="17:21" x14ac:dyDescent="0.3">
+      <c r="Q87" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="AJ71:AK71"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AJ56:AK56"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AJ68:AK68"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AJ62:AK62"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ65:AK65"/>
+    <mergeCell ref="AH77:AI77"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AJ59:AK59"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AH76:AK76"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH70:AK70"/>
     <mergeCell ref="S84:T84"/>
     <mergeCell ref="S85:T85"/>
     <mergeCell ref="AH9:AI9"/>
@@ -4908,69 +5014,29 @@
     <mergeCell ref="AH35:AK35"/>
     <mergeCell ref="AH36:AI36"/>
     <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AJ59:AK59"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AH76:AK76"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AH70:AK70"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AJ56:AK56"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="AJ68:AK68"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AJ62:AK62"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AJ65:AK65"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AJ71:AK71"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AA25:AB25"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z19:AA19 Z30:AA30 Z8:AA8 R8:S8 R63:S63 R52:S52 Z41:AA41 R34:S34 R78:S78 K8:L8 K57:L57 E8:F8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
@@ -4980,8 +5046,8 @@
       <formula1>V_NET_LIST</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DE95A-B3CB-4CA4-B374-096979C512E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E86A53-F191-4D5B-8E92-AD15E2F3F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="156" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="DIMENSIONNEMENT" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Stackup" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="REG_TYPE">DIMENSIONNEMENT!$B$6:$B$11</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="167">
   <si>
     <t>IC</t>
   </si>
@@ -500,6 +501,51 @@
   </si>
   <si>
     <t>EFF</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Foil</t>
+  </si>
+  <si>
+    <t>0.5oZ</t>
+  </si>
+  <si>
+    <t>35um</t>
+  </si>
+  <si>
+    <t>1oZ</t>
+  </si>
+  <si>
+    <t>18um</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>prepeg</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>https://www.pcbway.com/pcb_prototype/Cost_cores_Foil___Prepreg_for_PCBs.html</t>
+  </si>
+  <si>
+    <t>https://www.pcbway.com/multi-layer-laminated-structure.html</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>core thick</t>
   </si>
 </sst>
 </file>
@@ -509,7 +555,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +610,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,11 +892,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -873,18 +928,10 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,6 +939,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,22 +965,16 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,19 +986,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2132,6 +2190,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330339</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>145684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833B93F2-87A0-DDE5-B9B1-3CEA823F3784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169920" y="6217920"/>
+          <a:ext cx="9047619" cy="8009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}" name="Tableau1" displayName="Tableau1" ref="C3:AA18" totalsRowShown="0">
   <autoFilter ref="C3:AA18" xr:uid="{3816014D-321F-4496-BB75-D9FE3B93155B}"/>
@@ -3295,9 +3402,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="E3:AK87"/>
+  <dimension ref="E3:AK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:AK85"/>
     </sheetView>
   </sheetViews>
@@ -3332,10 +3439,10 @@
         <v>136</v>
       </c>
       <c r="AI3" s="36"/>
-      <c r="AJ3" s="40" t="s">
+      <c r="AJ3" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK3" s="41"/>
+      <c r="AK3" s="38"/>
     </row>
     <row r="4" spans="5:37" x14ac:dyDescent="0.3">
       <c r="AH4" s="17" t="s">
@@ -3354,23 +3461,23 @@
       </c>
     </row>
     <row r="5" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
     <row r="6" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH6" s="20">
+      <c r="AH6" s="42">
         <f>AI4*(AJ4/1000)</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22" t="s">
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK6" s="23"/>
+      <c r="AK6" s="45"/>
     </row>
     <row r="7" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="24" t="s">
@@ -3399,40 +3506,40 @@
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="N8" s="19">
         <v>0.85</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="34"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="12" t="s">
         <v>123</v>
       </c>
       <c r="U8" s="19">
         <v>0.94</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="Z8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" s="34"/>
+      <c r="AA8" s="28"/>
       <c r="AB8" s="12" t="s">
         <v>123</v>
       </c>
@@ -3441,35 +3548,35 @@
       </c>
     </row>
     <row r="9" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="18">
         <v>5</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="18">
         <v>4</v>
       </c>
-      <c r="Z9" s="31" t="s">
+      <c r="Z9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
       <c r="AC9" s="18">
         <v>4</v>
       </c>
@@ -3477,10 +3584,10 @@
         <v>136</v>
       </c>
       <c r="AI9" s="36"/>
-      <c r="AJ9" s="40" t="s">
+      <c r="AJ9" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK9" s="41"/>
+      <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E10" s="8" t="s">
@@ -3563,12 +3670,12 @@
       <c r="AC11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AH11" s="37" t="s">
+      <c r="AH11" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="39"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="41"/>
     </row>
     <row r="12" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E12" s="9" t="s">
@@ -3603,15 +3710,15 @@
       <c r="AC12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH12" s="42">
         <f>AI10*(AJ10/1000)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22" t="s">
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK12" s="23"/>
+      <c r="AK12" s="45"/>
     </row>
     <row r="13" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="15">
@@ -3659,40 +3766,40 @@
       <c r="E14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T14" s="28"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="Z14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA14" s="27" t="s">
+      <c r="AA14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="28"/>
+      <c r="AB14" s="32"/>
       <c r="AC14" s="10" t="s">
         <v>130</v>
       </c>
@@ -3702,11 +3809,11 @@
         <f>H15/H8</f>
         <v>103.22799303772641</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="33">
         <f>E15-H15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="15">
         <f>VLOOKUP(H11,Tableau3[#All],2,FALSE)*H13</f>
         <v>103.22799303772641</v>
@@ -3715,11 +3822,11 @@
         <f>N15/N8</f>
         <v>11.381839191572585</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="33">
         <f>K15-N15</f>
         <v>1.7072758787358886</v>
       </c>
-      <c r="M15" s="30"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="15">
         <f>VLOOKUP(N11,Tableau3[#All],2,FALSE)*N13</f>
         <v>9.6745633128366961</v>
@@ -3728,11 +3835,11 @@
         <f>U15/U8</f>
         <v>9.3445633128366961</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="33">
         <f>R15-U15</f>
         <v>0.56067379877020151</v>
       </c>
-      <c r="T15" s="30"/>
+      <c r="T15" s="34"/>
       <c r="U15" s="15">
         <f>VLOOKUP(U11,Tableau3[#All],2,FALSE)*U13</f>
         <v>8.7838895140664945</v>
@@ -3741,11 +3848,11 @@
         <f>AC15/AC8</f>
         <v>4.2352941176470589</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="33">
         <f>Z15-AC15</f>
         <v>0.63529411764705923</v>
       </c>
-      <c r="AB15" s="30"/>
+      <c r="AB15" s="34"/>
       <c r="AC15" s="15">
         <f>VLOOKUP(AC11,Tableau3[#All],2,FALSE)*AC13</f>
         <v>3.5999999999999996</v>
@@ -3754,10 +3861,10 @@
         <v>136</v>
       </c>
       <c r="AI15" s="36"/>
-      <c r="AJ15" s="40" t="s">
+      <c r="AJ15" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK15" s="41"/>
+      <c r="AK15" s="38"/>
     </row>
     <row r="16" spans="5:37" x14ac:dyDescent="0.3">
       <c r="AH16" s="17" t="s">
@@ -3776,12 +3883,12 @@
       </c>
     </row>
     <row r="17" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH17" s="37" t="s">
+      <c r="AH17" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="39"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="41"/>
     </row>
     <row r="18" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z18" s="24" t="s">
@@ -3790,21 +3897,21 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
       <c r="AC18" s="26"/>
-      <c r="AH18" s="20">
+      <c r="AH18" s="42">
         <f>AI16*(AJ16/1000)</f>
         <v>1.335</v>
       </c>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22" t="s">
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK18" s="23"/>
+      <c r="AK18" s="45"/>
     </row>
     <row r="19" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z19" s="33" t="s">
+      <c r="Z19" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="28"/>
       <c r="AB19" s="12" t="s">
         <v>123</v>
       </c>
@@ -3813,11 +3920,11 @@
       </c>
     </row>
     <row r="20" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z20" s="31" t="s">
+      <c r="Z20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
       <c r="AC20" s="18">
         <v>2</v>
       </c>
@@ -3835,10 +3942,10 @@
         <v>136</v>
       </c>
       <c r="AI21" s="36"/>
-      <c r="AJ21" s="40" t="s">
+      <c r="AJ21" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK21" s="41"/>
+      <c r="AK21" s="38"/>
     </row>
     <row r="22" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z22" s="14" t="s">
@@ -3873,25 +3980,25 @@
       <c r="AC23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AH23" s="37" t="s">
+      <c r="AH23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="39"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="41"/>
     </row>
     <row r="24" spans="5:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="22">
         <f>SUM(AH6,AH12,AH18,AH24,AH30,AH36,AH59,AH65,AH71,AH77)</f>
         <v>103.64279999999997</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="20">
         <f>F24/F25</f>
         <v>0.95879247027843939</v>
       </c>
@@ -3905,32 +4012,32 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC22,Tableau2[Current (mA)])/1000</f>
         <v>0.89</v>
       </c>
-      <c r="AH24" s="20">
+      <c r="AH24" s="42">
         <f>AI22*(AJ22/1000)</f>
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="22" t="s">
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK24" s="23"/>
+      <c r="AK24" s="45"/>
     </row>
     <row r="25" spans="5:37" ht="18" x14ac:dyDescent="0.35">
-      <c r="E25" s="44"/>
-      <c r="F25" s="46">
+      <c r="E25" s="21"/>
+      <c r="F25" s="23">
         <f>SUM(F24,L15,S15,AA15,AA26,AA37,S41,AA48,S59,L64,S70,S85)</f>
         <v>108.09721938043739</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="21" t="s">
         <v>139</v>
       </c>
       <c r="Z25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA25" s="27" t="s">
+      <c r="AA25" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AB25" s="28"/>
+      <c r="AB25" s="32"/>
       <c r="AC25" s="10" t="s">
         <v>130</v>
       </c>
@@ -3940,11 +4047,11 @@
         <f>AC26/AC19</f>
         <v>1.451086956521739</v>
       </c>
-      <c r="AA26" s="29">
+      <c r="AA26" s="33">
         <f>Z26-AC26</f>
         <v>0.11608695652173906</v>
       </c>
-      <c r="AB26" s="30"/>
+      <c r="AB26" s="34"/>
       <c r="AC26" s="15">
         <f>VLOOKUP(AC22,Tableau3[#All],2,FALSE)*AC24</f>
         <v>1.335</v>
@@ -3955,10 +4062,10 @@
         <v>136</v>
       </c>
       <c r="AI27" s="36"/>
-      <c r="AJ27" s="40" t="s">
+      <c r="AJ27" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK27" s="41"/>
+      <c r="AK27" s="38"/>
     </row>
     <row r="28" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH28" s="17" t="s">
@@ -3977,26 +4084,24 @@
       </c>
     </row>
     <row r="29" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q29" s="42"/>
       <c r="Z29" s="24" t="s">
         <v>150</v>
       </c>
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
       <c r="AC29" s="26"/>
-      <c r="AH29" s="37" t="s">
+      <c r="AH29" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="39"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="41"/>
     </row>
     <row r="30" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q30" s="42"/>
-      <c r="Z30" s="33" t="s">
+      <c r="Z30" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AA30" s="34"/>
+      <c r="AA30" s="28"/>
       <c r="AB30" s="12" t="s">
         <v>123</v>
       </c>
@@ -4004,29 +4109,27 @@
         <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
         <v>0.22727272727272729</v>
       </c>
-      <c r="AH30" s="20">
+      <c r="AH30" s="42">
         <f>AI28*(AJ28/1000)</f>
         <v>1.2240000000000002</v>
       </c>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="22" t="s">
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK30" s="23"/>
+      <c r="AK30" s="45"/>
     </row>
     <row r="31" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q31" s="42"/>
-      <c r="Z31" s="31" t="s">
+      <c r="Z31" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
       <c r="AC31" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q32" s="42"/>
       <c r="Z32" s="8" t="s">
         <v>133</v>
       </c>
@@ -4036,8 +4139,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q33" s="42"/>
+    <row r="33" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R33" s="24" t="s">
         <v>144</v>
       </c>
@@ -4056,17 +4158,16 @@
         <v>136</v>
       </c>
       <c r="AI33" s="36"/>
-      <c r="AJ33" s="40" t="s">
+      <c r="AJ33" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK33" s="41"/>
-    </row>
-    <row r="34" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q34" s="42"/>
-      <c r="R34" s="33" t="s">
+      <c r="AK33" s="38"/>
+    </row>
+    <row r="34" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R34" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="S34" s="34"/>
+      <c r="S34" s="28"/>
       <c r="T34" s="12" t="s">
         <v>123</v>
       </c>
@@ -4097,13 +4198,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q35" s="42"/>
-      <c r="R35" s="31" t="s">
+    <row r="35" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R35" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="18">
         <v>1</v>
       </c>
@@ -4117,15 +4217,14 @@
         <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC33,Tableau2[Current (mA)])/1000</f>
         <v>0.05</v>
       </c>
-      <c r="AH35" s="37" t="s">
+      <c r="AH35" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="39"/>
-    </row>
-    <row r="36" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q36" s="42"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="41"/>
+    </row>
+    <row r="36" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R36" s="8" t="s">
         <v>133</v>
       </c>
@@ -4137,25 +4236,24 @@
       <c r="Z36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA36" s="27" t="s">
+      <c r="AA36" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AB36" s="28"/>
+      <c r="AB36" s="32"/>
       <c r="AC36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AH36" s="20">
+      <c r="AH36" s="42">
         <f>AI34*(AJ34/1000)</f>
         <v>4.4088000000000003</v>
       </c>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="22" t="s">
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK36" s="23"/>
-    </row>
-    <row r="37" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q37" s="42"/>
+      <c r="AK36" s="45"/>
+    </row>
+    <row r="37" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R37" s="14" t="s">
         <v>145</v>
       </c>
@@ -4168,18 +4266,17 @@
         <f>AC37/AC30</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="AA37" s="29">
+      <c r="AA37" s="33">
         <f>Z37-AC37</f>
         <v>0.1275</v>
       </c>
-      <c r="AB37" s="30"/>
+      <c r="AB37" s="34"/>
       <c r="AC37" s="15">
         <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)*AC35</f>
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
-    <row r="38" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q38" s="42"/>
+    <row r="38" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R38" s="9" t="s">
         <v>127</v>
       </c>
@@ -4189,8 +4286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q39" s="42"/>
+    <row r="39" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R39" s="15">
         <f>R41/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
         <v>6.0000000000000005E-2</v>
@@ -4202,15 +4298,14 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q40" s="42"/>
+    <row r="40" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S40" s="27" t="s">
+      <c r="S40" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T40" s="28"/>
+      <c r="T40" s="32"/>
       <c r="U40" s="10" t="s">
         <v>130</v>
       </c>
@@ -4221,25 +4316,24 @@
       <c r="AB40" s="25"/>
       <c r="AC40" s="26"/>
     </row>
-    <row r="41" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q41" s="42"/>
+    <row r="41" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R41" s="15">
         <f>U41/U34</f>
         <v>0.33</v>
       </c>
-      <c r="S41" s="29">
+      <c r="S41" s="33">
         <f>R41-U41</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="T41" s="30"/>
+      <c r="T41" s="34"/>
       <c r="U41" s="15">
         <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)*U39</f>
         <v>0.3</v>
       </c>
-      <c r="Z41" s="33" t="s">
+      <c r="Z41" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AA41" s="34"/>
+      <c r="AA41" s="28"/>
       <c r="AB41" s="12" t="s">
         <v>123</v>
       </c>
@@ -4247,19 +4341,17 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="42" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q42" s="42"/>
-      <c r="Z42" s="31" t="s">
+    <row r="42" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z42" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
       <c r="AC42" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q43" s="42"/>
+    <row r="43" spans="18:37" x14ac:dyDescent="0.3">
       <c r="Z43" s="8" t="s">
         <v>133</v>
       </c>
@@ -4269,8 +4361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q44" s="42"/>
+    <row r="44" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z44" s="14" t="s">
         <v>145</v>
       </c>
@@ -4280,8 +4371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q45" s="42"/>
+    <row r="45" spans="18:37" x14ac:dyDescent="0.3">
       <c r="Z45" s="9" t="s">
         <v>127</v>
       </c>
@@ -4291,8 +4381,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q46" s="42"/>
+    <row r="46" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z46" s="15">
         <f>Z48/VLOOKUP(Z44,Tableau3[#All],2,FALSE)</f>
         <v>0.24189723320158105</v>
@@ -4304,43 +4393,35 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="47" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q47" s="42"/>
+    <row r="47" spans="18:37" x14ac:dyDescent="0.3">
       <c r="Z47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AA47" s="27" t="s">
+      <c r="AA47" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AB47" s="28"/>
+      <c r="AB47" s="32"/>
       <c r="AC47" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q48" s="42"/>
+    <row r="48" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z48" s="15">
         <f>AC48/AC41</f>
         <v>1.3304347826086957</v>
       </c>
-      <c r="AA48" s="29">
+      <c r="AA48" s="33">
         <f>Z48-AC48</f>
         <v>0.10643478260869554</v>
       </c>
-      <c r="AB48" s="30"/>
+      <c r="AB48" s="34"/>
       <c r="AC48" s="15">
         <f>VLOOKUP(AC44,Tableau3[#All],2,FALSE)*AC46</f>
         <v>1.2240000000000002</v>
       </c>
     </row>
-    <row r="49" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="Q49" s="42"/>
-    </row>
-    <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q50" s="42"/>
-    </row>
+    <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q51" s="42"/>
       <c r="R51" s="24" t="s">
         <v>144</v>
       </c>
@@ -4349,11 +4430,10 @@
       <c r="U51" s="26"/>
     </row>
     <row r="52" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q52" s="42"/>
-      <c r="R52" s="33" t="s">
+      <c r="R52" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="28"/>
       <c r="T52" s="12" t="s">
         <v>123</v>
       </c>
@@ -4363,18 +4443,16 @@
       </c>
     </row>
     <row r="53" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q53" s="42"/>
-      <c r="R53" s="31" t="s">
+      <c r="R53" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
       <c r="U53" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="Q54" s="42"/>
       <c r="R54" s="8" t="s">
         <v>133</v>
       </c>
@@ -4385,7 +4463,6 @@
       </c>
     </row>
     <row r="55" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q55" s="42"/>
       <c r="R55" s="14" t="s">
         <v>145</v>
       </c>
@@ -4402,7 +4479,6 @@
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="26"/>
-      <c r="Q56" s="42"/>
       <c r="R56" s="9" t="s">
         <v>127</v>
       </c>
@@ -4415,23 +4491,22 @@
         <v>136</v>
       </c>
       <c r="AI56" s="36"/>
-      <c r="AJ56" s="40" t="s">
+      <c r="AJ56" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK56" s="41"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="57" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="L57" s="34"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="12" t="s">
         <v>123</v>
       </c>
       <c r="N57" s="19">
         <v>0.65</v>
       </c>
-      <c r="Q57" s="42"/>
       <c r="R57" s="15">
         <f>R59/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
         <v>0.32000000000000006</v>
@@ -4458,31 +4533,30 @@
       </c>
     </row>
     <row r="58" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K58" s="31" t="s">
+      <c r="K58" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
       <c r="N58" s="18">
         <v>2</v>
       </c>
-      <c r="Q58" s="42"/>
       <c r="R58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S58" s="27" t="s">
+      <c r="S58" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T58" s="28"/>
+      <c r="T58" s="32"/>
       <c r="U58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AH58" s="37" t="s">
+      <c r="AH58" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="39"/>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="40"/>
+      <c r="AK58" s="41"/>
     </row>
     <row r="59" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K59" s="8" t="s">
@@ -4493,29 +4567,28 @@
       <c r="N59" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Q59" s="42"/>
       <c r="R59" s="15">
         <f>U59/U52</f>
         <v>1.7600000000000002</v>
       </c>
-      <c r="S59" s="29">
+      <c r="S59" s="33">
         <f>R59-U59</f>
         <v>0.70400000000000018</v>
       </c>
-      <c r="T59" s="30"/>
+      <c r="T59" s="34"/>
       <c r="U59" s="15">
         <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)*U57</f>
         <v>1.056</v>
       </c>
-      <c r="AH59" s="20">
+      <c r="AH59" s="42">
         <f>AI57*(AJ57/1000)</f>
         <v>0.3</v>
       </c>
-      <c r="AI59" s="21"/>
-      <c r="AJ59" s="22" t="s">
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK59" s="23"/>
+      <c r="AK59" s="45"/>
     </row>
     <row r="60" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K60" s="14" t="s">
@@ -4526,7 +4599,6 @@
       <c r="N60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q60" s="42"/>
     </row>
     <row r="61" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K61" s="9" t="s">
@@ -4537,7 +4609,6 @@
       <c r="N61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="Q61" s="42"/>
     </row>
     <row r="62" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K62" s="15">
@@ -4550,7 +4621,6 @@
         <f>R83</f>
         <v>0.06</v>
       </c>
-      <c r="Q62" s="42"/>
       <c r="R62" s="24" t="s">
         <v>144</v>
       </c>
@@ -4561,27 +4631,26 @@
         <v>136</v>
       </c>
       <c r="AI62" s="36"/>
-      <c r="AJ62" s="40" t="s">
+      <c r="AJ62" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK62" s="41"/>
+      <c r="AK62" s="38"/>
     </row>
     <row r="63" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L63" s="27" t="s">
+      <c r="L63" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="M63" s="28"/>
+      <c r="M63" s="32"/>
       <c r="N63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="33" t="s">
+      <c r="R63" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="34"/>
+      <c r="S63" s="28"/>
       <c r="T63" s="12" t="s">
         <v>123</v>
       </c>
@@ -4609,33 +4678,31 @@
         <f>N64/N57</f>
         <v>0.64615384615384608</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L64" s="33">
         <f>K64-N64</f>
         <v>0.22615384615384609</v>
       </c>
-      <c r="M64" s="30"/>
+      <c r="M64" s="34"/>
       <c r="N64" s="15">
         <f>VLOOKUP(N60,Tableau3[#All],2,FALSE)*N62*-1</f>
         <v>0.42</v>
       </c>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="31" t="s">
+      <c r="R64" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="18">
         <v>1</v>
       </c>
-      <c r="AH64" s="37" t="s">
+      <c r="AH64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="39"/>
-    </row>
-    <row r="65" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q65" s="42"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="40"/>
+      <c r="AK64" s="41"/>
+    </row>
+    <row r="65" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R65" s="8" t="s">
         <v>133</v>
       </c>
@@ -4644,18 +4711,17 @@
       <c r="U65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AH65" s="20">
+      <c r="AH65" s="42">
         <f>AI63*(AJ63/1000)</f>
         <v>1.056</v>
       </c>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="22" t="s">
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK65" s="23"/>
-    </row>
-    <row r="66" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q66" s="42"/>
+      <c r="AK65" s="45"/>
+    </row>
+    <row r="66" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R66" s="14" t="s">
         <v>145</v>
       </c>
@@ -4665,8 +4731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q67" s="42"/>
+    <row r="67" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R67" s="9" t="s">
         <v>127</v>
       </c>
@@ -4676,8 +4741,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q68" s="42"/>
+    <row r="68" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R68" s="15">
         <f>R70/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
         <v>5.5E-2</v>
@@ -4692,20 +4756,19 @@
         <v>136</v>
       </c>
       <c r="AI68" s="36"/>
-      <c r="AJ68" s="40" t="s">
+      <c r="AJ68" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK68" s="41"/>
-    </row>
-    <row r="69" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q69" s="42"/>
+      <c r="AK68" s="38"/>
+    </row>
+    <row r="69" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R69" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S69" s="27" t="s">
+      <c r="S69" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T69" s="28"/>
+      <c r="T69" s="32"/>
       <c r="U69" s="10" t="s">
         <v>130</v>
       </c>
@@ -4724,59 +4787,49 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q70" s="42"/>
+    <row r="70" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R70" s="15">
         <f>U70/U63</f>
         <v>0.30249999999999999</v>
       </c>
-      <c r="S70" s="29">
+      <c r="S70" s="33">
         <f>R70-U70</f>
         <v>0.121</v>
       </c>
-      <c r="T70" s="30"/>
+      <c r="T70" s="34"/>
       <c r="U70" s="15">
         <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)*U68</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AH70" s="37" t="s">
+      <c r="AH70" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="39"/>
-    </row>
-    <row r="71" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q71" s="42"/>
-      <c r="AH71" s="20">
+      <c r="AI70" s="40"/>
+      <c r="AJ70" s="40"/>
+      <c r="AK70" s="41"/>
+    </row>
+    <row r="71" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="AH71" s="42">
         <f>AI69*(AJ69/1000)</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="AI71" s="21"/>
-      <c r="AJ71" s="22" t="s">
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK71" s="23"/>
-    </row>
-    <row r="72" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q72" s="42"/>
-    </row>
-    <row r="73" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q73" s="42"/>
-    </row>
-    <row r="74" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q74" s="42"/>
+      <c r="AK71" s="45"/>
+    </row>
+    <row r="74" spans="18:37" x14ac:dyDescent="0.3">
       <c r="AH74" s="35" t="s">
         <v>136</v>
       </c>
       <c r="AI74" s="36"/>
-      <c r="AJ74" s="40" t="s">
+      <c r="AJ74" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AK74" s="41"/>
-    </row>
-    <row r="75" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q75" s="42"/>
+      <c r="AK74" s="38"/>
+    </row>
+    <row r="75" spans="18:37" x14ac:dyDescent="0.3">
       <c r="AH75" s="17" t="s">
         <v>118</v>
       </c>
@@ -4792,39 +4845,36 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q76" s="42"/>
-      <c r="AH76" s="37" t="s">
+    <row r="76" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH76" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="39"/>
-    </row>
-    <row r="77" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q77" s="42"/>
+      <c r="AI76" s="40"/>
+      <c r="AJ76" s="40"/>
+      <c r="AK76" s="41"/>
+    </row>
+    <row r="77" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R77" s="24" t="s">
         <v>146</v>
       </c>
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
       <c r="U77" s="26"/>
-      <c r="AH77" s="20">
+      <c r="AH77" s="42">
         <f>AI75*(AJ75/1000)*-1</f>
         <v>0.3</v>
       </c>
-      <c r="AI77" s="21"/>
-      <c r="AJ77" s="22" t="s">
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AK77" s="23"/>
-    </row>
-    <row r="78" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q78" s="42"/>
-      <c r="R78" s="33" t="s">
+      <c r="AK77" s="45"/>
+    </row>
+    <row r="78" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R78" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="S78" s="34"/>
+      <c r="S78" s="28"/>
       <c r="T78" s="12" t="s">
         <v>123</v>
       </c>
@@ -4833,19 +4883,17 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="79" spans="17:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q79" s="42"/>
-      <c r="R79" s="31" t="s">
+    <row r="79" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R79" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
       <c r="U79" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="17:37" x14ac:dyDescent="0.3">
-      <c r="Q80" s="42"/>
+    <row r="80" spans="18:37" x14ac:dyDescent="0.3">
       <c r="R80" s="8" t="s">
         <v>133</v>
       </c>
@@ -4855,8 +4903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q81" s="42"/>
+    <row r="81" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R81" s="14" t="s">
         <v>135</v>
       </c>
@@ -4866,8 +4913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q82" s="42"/>
+    <row r="82" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R82" s="9" t="s">
         <v>127</v>
       </c>
@@ -4877,8 +4923,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q83" s="42"/>
+    <row r="83" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R83" s="15">
         <f>R85/VLOOKUP(R81,Tableau3[#All],2,FALSE)*-1</f>
         <v>0.06</v>
@@ -4890,43 +4935,121 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q84" s="42"/>
+    <row r="84" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="S84" s="27" t="s">
+      <c r="S84" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T84" s="28"/>
+      <c r="T84" s="32"/>
       <c r="U84" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="17:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q85" s="42"/>
+    <row r="85" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R85" s="15">
         <f>U85/U78</f>
         <v>0.42</v>
       </c>
-      <c r="S85" s="29">
+      <c r="S85" s="33">
         <f>R85-U85</f>
         <v>0.12</v>
       </c>
-      <c r="T85" s="30"/>
+      <c r="T85" s="34"/>
       <c r="U85" s="15">
         <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)*U83*-1</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q86" s="42"/>
-    </row>
-    <row r="87" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q87" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AJ71:AK71"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AH77:AI77"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AJ59:AK59"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AH76:AK76"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH70:AK70"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AJ56:AK56"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AJ68:AK68"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AJ62:AK62"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ65:AK65"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:G9"/>
@@ -4951,92 +5074,6 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AJ56:AK56"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="AJ68:AK68"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AJ62:AK62"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AJ65:AK65"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AJ59:AK59"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AH76:AK76"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AH70:AK70"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="Z40:AC40"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="AJ71:AK71"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AA25:AB25"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z19:AA19 Z30:AA30 Z8:AA8 R8:S8 R63:S63 R52:S52 Z41:AA41 R34:S34 R78:S78 K8:L8 K57:L57 E8:F8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
@@ -5050,4 +5087,422 @@
   <pageSetup paperSize="8" scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C7DA35-9B84-4974-8F8E-7E5914C8B918}">
+  <dimension ref="C6:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>SUM(G7:G37)</f>
+        <v>1.8620000000000003</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8">
+        <v>0.08</v>
+      </c>
+      <c r="H8">
+        <v>1080</v>
+      </c>
+      <c r="O8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>0.08</v>
+      </c>
+      <c r="H12">
+        <v>1080</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15">
+        <v>0.09</v>
+      </c>
+      <c r="L15">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16">
+        <v>0.08</v>
+      </c>
+      <c r="H16">
+        <v>1080</v>
+      </c>
+      <c r="K16">
+        <v>0.12</v>
+      </c>
+      <c r="L16">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17">
+        <v>0.19</v>
+      </c>
+      <c r="L17">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F18" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20">
+        <v>0.08</v>
+      </c>
+      <c r="H20">
+        <v>1080</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F22" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24">
+        <v>0.08</v>
+      </c>
+      <c r="H24">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F26" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28">
+        <v>0.08</v>
+      </c>
+      <c r="H28">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32">
+        <v>0.08</v>
+      </c>
+      <c r="H32">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O7" r:id="rId1" xr:uid="{F93E6F0C-4C67-4A1B-8A3A-2EE5B101751B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/03_CONCEPTION_NOTES/power_tree.xlsx
+++ b/03_CONCEPTION_NOTES/power_tree.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\S7_electronique_avance\03_CONCEPTION_NOTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E86A53-F191-4D5B-8E92-AD15E2F3F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFEF76-AEDE-4873-A374-9C01A4F93C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="156" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="156" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="DIMENSIONNEMENT" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="POWER_TREE" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="DIMENSIONNEMENT" sheetId="2" r:id="rId3"/>
     <sheet name="Stackup" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="REG_TYPE">DIMENSIONNEMENT!$B$6:$B$11</definedName>
     <definedName name="V_NET_LIST">DIMENSIONNEMENT!$D$7:$D$18</definedName>
     <definedName name="V_NET_VOLTAGE">DIMENSIONNEMENT!$E$7:$E$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Feuil3!$D$1:$AK$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">POWER_TREE!$D$1:$AK$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -932,6 +932,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,18 +954,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,16 +968,22 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,21 +995,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2558,11 +2558,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="E3:AK85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5:AK5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="25" width="5.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="5.77734375" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="153" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH3" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK3" s="48"/>
+    </row>
+    <row r="4" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI4" s="16">
+        <f>VLOOKUP(AH4,Tableau3[#All],2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46"/>
+    </row>
+    <row r="6" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH6" s="27">
+        <f>AI4*(AJ4/1000)</f>
+        <v>48</v>
+      </c>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" s="30"/>
+    </row>
+    <row r="7" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="K7" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="R7" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="Z7" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33"/>
+    </row>
+    <row r="8" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="Z8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="18">
+        <v>5</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK9" s="48"/>
+    </row>
+    <row r="10" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI10" s="16">
+        <f>VLOOKUP(AH10,Tableau3[#All],2,FALSE)</f>
+        <v>1.2</v>
+      </c>
+      <c r="AJ10" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH10,Tableau2[Current (mA)])</f>
+        <v>3000</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="46"/>
+    </row>
+    <row r="12" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH12" s="27">
+        <f>AI10*(AJ10/1000)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK12" s="30"/>
+    </row>
+    <row r="13" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="15">
+        <f>E15/VLOOKUP(E11,Tableau3[#All],2,FALSE)</f>
+        <v>2.5011663765719345</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15">
+        <f>SUM(AJ4/1000,K13,K62)</f>
+        <v>2.5011663765719345</v>
+      </c>
+      <c r="K13" s="15">
+        <f>K15/VLOOKUP(K11,Tableau3[#All],2,FALSE)</f>
+        <v>0.4742432996488577</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15">
+        <f>SUM(R13,R39)</f>
+        <v>1.7590115114248539</v>
+      </c>
+      <c r="R13" s="15">
+        <f>R15/VLOOKUP(R11,Tableau3[#All],2,FALSE)</f>
+        <v>1.6990115114248538</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="15">
+        <f>SUM(Z35,Z24,Z46,Z13,AJ34/1000)</f>
+        <v>2.6617847012322713</v>
+      </c>
+      <c r="Z13" s="15">
+        <f>Z15/VLOOKUP(Z11,Tableau3[#All],2,FALSE)</f>
+        <v>0.77005347593582885</v>
+      </c>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AC11,Tableau2[Current (mA)])/1000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="15">
+        <f>H15/H8</f>
+        <v>60.027993037726432</v>
+      </c>
+      <c r="F15" s="36">
+        <f>E15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="15">
+        <f>VLOOKUP(H11,Tableau3[#All],2,FALSE)*H13</f>
+        <v>60.027993037726432</v>
+      </c>
+      <c r="K15" s="15">
+        <f>N15/N8</f>
+        <v>11.381839191572585</v>
+      </c>
+      <c r="L15" s="36">
+        <f>K15-N15</f>
+        <v>1.7072758787358886</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="15">
+        <f>VLOOKUP(N11,Tableau3[#All],2,FALSE)*N13</f>
+        <v>9.6745633128366961</v>
+      </c>
+      <c r="R15" s="15">
+        <f>U15/U8</f>
+        <v>9.3445633128366961</v>
+      </c>
+      <c r="S15" s="36">
+        <f>R15-U15</f>
+        <v>0.56067379877020151</v>
+      </c>
+      <c r="T15" s="37"/>
+      <c r="U15" s="15">
+        <f>VLOOKUP(U11,Tableau3[#All],2,FALSE)*U13</f>
+        <v>8.7838895140664945</v>
+      </c>
+      <c r="Z15" s="15">
+        <f>AC15/AC8</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="AA15" s="36">
+        <f>Z15-AC15</f>
+        <v>0.63529411764705923</v>
+      </c>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="15">
+        <f>VLOOKUP(AC11,Tableau3[#All],2,FALSE)*AC13</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AH15" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK15" s="48"/>
+    </row>
+    <row r="16" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI16" s="16">
+        <f>VLOOKUP(AH16,Tableau3[#All],2,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AJ16" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH16,Tableau2[Current (mA)])</f>
+        <v>890</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH17" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="46"/>
+    </row>
+    <row r="18" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="33"/>
+      <c r="AH18" s="27">
+        <f>AI16*(AJ16/1000)</f>
+        <v>1.335</v>
+      </c>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK18" s="30"/>
+    </row>
+    <row r="19" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z19" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="20" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z20" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="Z21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH21" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK21" s="48"/>
+    </row>
+    <row r="22" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI22" s="16">
+        <f>VLOOKUP(AH22,Tableau3[#All],2,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AJ22" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH22,Tableau2[Current (mA)])</f>
+        <v>50</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="Z23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH23" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="46"/>
+    </row>
+    <row r="24" spans="5:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="22">
+        <f>SUM(AH6,AH12,AH18,AH24,AH30,AH36,AH59,AH65,AH71,AH77)</f>
+        <v>60.442799999999991</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="20">
+        <f>F24/F25</f>
+        <v>0.93136193780006282</v>
+      </c>
+      <c r="Z24" s="15">
+        <f>Z26/VLOOKUP(Z22,Tableau3[#All],2,FALSE)</f>
+        <v>0.26383399209486164</v>
+      </c>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AC22,Tableau2[Current (mA)])/1000</f>
+        <v>0.89</v>
+      </c>
+      <c r="AH24" s="27">
+        <f>AI22*(AJ22/1000)</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK24" s="30"/>
+    </row>
+    <row r="25" spans="5:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="E25" s="21"/>
+      <c r="F25" s="23">
+        <f>SUM(F24,L15,S15,AA15,AA26,AA37,S41,AA48,S59,L64,S70,S85)</f>
+        <v>64.89721938043742</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA25" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z26" s="15">
+        <f>AC26/AC19</f>
+        <v>1.451086956521739</v>
+      </c>
+      <c r="AA26" s="36">
+        <f>Z26-AC26</f>
+        <v>0.11608695652173906</v>
+      </c>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="15">
+        <f>VLOOKUP(AC22,Tableau3[#All],2,FALSE)*AC24</f>
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="27" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="AH27" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK27" s="48"/>
+    </row>
+    <row r="28" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI28" s="16">
+        <f>VLOOKUP(AH28,Tableau3[#All],2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AJ28" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH28,Tableau2[Current (mA)])</f>
+        <v>680</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z29" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="33"/>
+      <c r="AH29" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="46"/>
+    </row>
+    <row r="30" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z30" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC30" s="19">
+        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="AH30" s="27">
+        <f>AI28*(AJ28/1000)</f>
+        <v>1.2240000000000002</v>
+      </c>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK30" s="30"/>
+    </row>
+    <row r="31" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z31" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R33" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="33"/>
+      <c r="Z33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK33" s="48"/>
+    </row>
+    <row r="34" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="41"/>
+      <c r="T34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U34" s="19">
+        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI34" s="16">
+        <f>VLOOKUP(AH34,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AJ34" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH34,Tableau2[Current (mA)])</f>
+        <v>1336</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R35" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="15">
+        <f>Z37/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AC33,Tableau2[Current (mA)])/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="AH35" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="46"/>
+    </row>
+    <row r="36" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA36" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH36" s="27">
+        <f>AI34*(AJ34/1000)</f>
+        <v>4.4088000000000003</v>
+      </c>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK36" s="30"/>
+    </row>
+    <row r="37" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z37" s="15">
+        <f>AC37/AC30</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AA37" s="36">
+        <f>Z37-AC37</f>
+        <v>0.1275</v>
+      </c>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="15">
+        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)*AC35</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R39" s="15">
+        <f>R41/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="15">
+        <f>AJ57/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T40" s="35"/>
+      <c r="U40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z40" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="33"/>
+    </row>
+    <row r="41" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R41" s="15">
+        <f>U41/U34</f>
+        <v>0.33</v>
+      </c>
+      <c r="S41" s="36">
+        <f>R41-U41</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="T41" s="37"/>
+      <c r="U41" s="15">
+        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)*U39</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z41" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z42" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="Z43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="Z45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z46" s="15">
+        <f>Z48/VLOOKUP(Z44,Tableau3[#All],2,FALSE)</f>
+        <v>0.24189723320158105</v>
+      </c>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AC44,Tableau2[Current (mA)])/1000</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="Z47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA47" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z48" s="15">
+        <f>AC48/AC41</f>
+        <v>1.3304347826086957</v>
+      </c>
+      <c r="AA48" s="36">
+        <f>Z48-AC48</f>
+        <v>0.10643478260869554</v>
+      </c>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="15">
+        <f>VLOOKUP(AC44,Tableau3[#All],2,FALSE)*AC46</f>
+        <v>1.2240000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R51" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="33"/>
+    </row>
+    <row r="52" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R52" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" s="41"/>
+      <c r="T52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U52" s="19">
+        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R53" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="11:37" x14ac:dyDescent="0.3">
+      <c r="R54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="33"/>
+      <c r="R56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH56" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK56" s="48"/>
+    </row>
+    <row r="57" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L57" s="41"/>
+      <c r="M57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="R57" s="15">
+        <f>R59/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!U55,Tableau2[Current (mA)])/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="AH57" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI57" s="16">
+        <f>VLOOKUP(AH57,Tableau3[#All],2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ57" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH57,Tableau2[Current (mA)])</f>
+        <v>60</v>
+      </c>
+      <c r="AK57" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="18">
+        <v>2</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S58" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T58" s="35"/>
+      <c r="U58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH58" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI58" s="45"/>
+      <c r="AJ58" s="45"/>
+      <c r="AK58" s="46"/>
+    </row>
+    <row r="59" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R59" s="15">
+        <f>U59/U52</f>
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="S59" s="36">
+        <f>R59-U59</f>
+        <v>0.70400000000000018</v>
+      </c>
+      <c r="T59" s="37"/>
+      <c r="U59" s="15">
+        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)*U57</f>
+        <v>1.056</v>
+      </c>
+      <c r="AH59" s="27">
+        <f>AI57*(AJ57/1000)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK59" s="30"/>
+    </row>
+    <row r="60" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K60" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="15">
+        <f>K64/VLOOKUP(K60,Tableau3[#All],2,FALSE)</f>
+        <v>2.6923076923076921E-2</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="15">
+        <f>R83</f>
+        <v>0.06</v>
+      </c>
+      <c r="R62" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="33"/>
+      <c r="AH62" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK62" s="48"/>
+    </row>
+    <row r="63" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="35"/>
+      <c r="N63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="R63" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S63" s="41"/>
+      <c r="T63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U63" s="19">
+        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AH63" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI63" s="16">
+        <f>VLOOKUP(AH63,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AJ63" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH63,Tableau2[Current (mA)])</f>
+        <v>320</v>
+      </c>
+      <c r="AK63" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="15">
+        <f>N64/N57</f>
+        <v>0.64615384615384608</v>
+      </c>
+      <c r="L64" s="36">
+        <f>K64-N64</f>
+        <v>0.22615384615384609</v>
+      </c>
+      <c r="M64" s="37"/>
+      <c r="N64" s="15">
+        <f>VLOOKUP(N60,Tableau3[#All],2,FALSE)*N62*-1</f>
+        <v>0.42</v>
+      </c>
+      <c r="R64" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI64" s="45"/>
+      <c r="AJ64" s="45"/>
+      <c r="AK64" s="46"/>
+    </row>
+    <row r="65" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R65" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH65" s="27">
+        <f>AI63*(AJ63/1000)</f>
+        <v>1.056</v>
+      </c>
+      <c r="AI65" s="28"/>
+      <c r="AJ65" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK65" s="30"/>
+    </row>
+    <row r="66" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R66" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R67" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R68" s="15">
+        <f>R70/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="15">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!U66,Tableau2[Current (mA)])/1000</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AH68" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK68" s="48"/>
+    </row>
+    <row r="69" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S69" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T69" s="35"/>
+      <c r="U69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH69" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI69" s="16">
+        <f>VLOOKUP(AH69,Tableau3[#All],2,FALSE)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AJ69" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH69,Tableau2[Current (mA)])</f>
+        <v>55</v>
+      </c>
+      <c r="AK69" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R70" s="15">
+        <f>U70/U63</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="S70" s="36">
+        <f>R70-U70</f>
+        <v>0.121</v>
+      </c>
+      <c r="T70" s="37"/>
+      <c r="U70" s="15">
+        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)*U68</f>
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="AH70" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI70" s="45"/>
+      <c r="AJ70" s="45"/>
+      <c r="AK70" s="46"/>
+    </row>
+    <row r="71" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="AH71" s="27">
+        <f>AI69*(AJ69/1000)</f>
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="AI71" s="28"/>
+      <c r="AJ71" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK71" s="30"/>
+    </row>
+    <row r="74" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="AH74" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK74" s="48"/>
+    </row>
+    <row r="75" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="AH75" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI75" s="16">
+        <f>VLOOKUP(AH75,Tableau3[#All],2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="AJ75" s="17">
+        <f>SUMIF(Tableau2[Voltage net list],POWER_TREE!AH75,Tableau2[Current (mA)])</f>
+        <v>60</v>
+      </c>
+      <c r="AK75" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH76" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI76" s="45"/>
+      <c r="AJ76" s="45"/>
+      <c r="AK76" s="46"/>
+    </row>
+    <row r="77" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R77" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
+      <c r="U77" s="33"/>
+      <c r="AH77" s="27">
+        <f>AI75*(AJ75/1000)*-1</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI77" s="28"/>
+      <c r="AJ77" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK77" s="30"/>
+    </row>
+    <row r="78" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R78" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="S78" s="41"/>
+      <c r="T78" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U78" s="19">
+        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)/VLOOKUP(R81,Tableau3[#All],2,FALSE)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="79" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R79" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="18:37" x14ac:dyDescent="0.3">
+      <c r="R80" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R81" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R82" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R83" s="15">
+        <f>R85/VLOOKUP(R81,Tableau3[#All],2,FALSE)*-1</f>
+        <v>0.06</v>
+      </c>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="15">
+        <f>AJ75/1000</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R84" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S84" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T84" s="35"/>
+      <c r="U84" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R85" s="15">
+        <f>U85/U78</f>
+        <v>0.42</v>
+      </c>
+      <c r="S85" s="36">
+        <f>R85-U85</f>
+        <v>0.12</v>
+      </c>
+      <c r="T85" s="37"/>
+      <c r="U85" s="15">
+        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)*U83*-1</f>
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AJ56:AK56"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AJ68:AK68"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AJ62:AK62"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ65:AK65"/>
+    <mergeCell ref="AH77:AI77"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AJ59:AK59"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AH76:AK76"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH70:AK70"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AJ71:AK71"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AA25:AB25"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z19:AA19 Z30:AA30 Z8:AA8 R8:S8 R63:S63 R52:S52 Z41:AA41 R34:S34 R78:S78 K8:L8 K57:L57 E8:F8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
+      <formula1>REG_TYPE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22 AC22 Z33 AC33 Z11 AC11 R11 U11 R66 U66 R55 U55 Z44 AC44 R37 U37 R81 U81 AH10 AH34 AH16 AH22 AH28 AH57 AH75 AH4 AH63 AH69 K11 N11 K60 N60 E11 H11" xr:uid="{171558F4-673C-494B-85C2-DAD3DB31C89D}">
+      <formula1>V_NET_LIST</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="52" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,7 +4696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA1996-AD2B-4FE9-96E1-5059264D70BB}">
   <dimension ref="B5:I28"/>
   <sheetViews>
@@ -3397,1703 +5088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FA8E0A-FAAA-45F3-9E9F-6A7A583E1873}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="E3:AK85"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AK85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="10" width="5.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" customWidth="1"/>
-    <col min="22" max="25" width="5.77734375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" customWidth="1"/>
-    <col min="28" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="5.77734375" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="153" width="5.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH3" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK3" s="38"/>
-    </row>
-    <row r="4" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI4" s="16">
-        <f>VLOOKUP(AH4,Tableau3[#All],2,FALSE)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH4,Tableau2[Current (mA)])</f>
-        <v>3800</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
-    </row>
-    <row r="6" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH6" s="42">
-        <f>AI4*(AJ4/1000)</f>
-        <v>91.199999999999989</v>
-      </c>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK6" s="45"/>
-    </row>
-    <row r="7" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="K7" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="R7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
-      <c r="Z7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="26"/>
-    </row>
-    <row r="8" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8" s="19">
-        <v>0.94</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="18">
-        <v>5</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="18">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="18">
-        <v>4</v>
-      </c>
-      <c r="AH9" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK9" s="38"/>
-    </row>
-    <row r="10" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI10" s="16">
-        <f>VLOOKUP(AH10,Tableau3[#All],2,FALSE)</f>
-        <v>1.2</v>
-      </c>
-      <c r="AJ10" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH10,Tableau2[Current (mA)])</f>
-        <v>3000</v>
-      </c>
-      <c r="AK10" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH11" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="41"/>
-    </row>
-    <row r="12" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH12" s="42">
-        <f>AI10*(AJ10/1000)</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK12" s="45"/>
-    </row>
-    <row r="13" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="15">
-        <f>E15/VLOOKUP(E11,Tableau3[#All],2,FALSE)</f>
-        <v>4.3011663765719339</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="15">
-        <f>SUM(AJ4/1000,K13,K62)</f>
-        <v>4.3011663765719339</v>
-      </c>
-      <c r="K13" s="15">
-        <f>K15/VLOOKUP(K11,Tableau3[#All],2,FALSE)</f>
-        <v>0.4742432996488577</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="15">
-        <f>SUM(R13,R39)</f>
-        <v>1.7590115114248539</v>
-      </c>
-      <c r="R13" s="15">
-        <f>R15/VLOOKUP(R11,Tableau3[#All],2,FALSE)</f>
-        <v>1.6990115114248538</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="15">
-        <f>SUM(Z35,Z24,Z46,Z13,AJ34/1000)</f>
-        <v>2.6617847012322713</v>
-      </c>
-      <c r="Z13" s="15">
-        <f>Z15/VLOOKUP(Z11,Tableau3[#All],2,FALSE)</f>
-        <v>0.77005347593582885</v>
-      </c>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC11,Tableau2[Current (mA)])/1000</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="15">
-        <f>H15/H8</f>
-        <v>103.22799303772641</v>
-      </c>
-      <c r="F15" s="33">
-        <f>E15-H15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="15">
-        <f>VLOOKUP(H11,Tableau3[#All],2,FALSE)*H13</f>
-        <v>103.22799303772641</v>
-      </c>
-      <c r="K15" s="15">
-        <f>N15/N8</f>
-        <v>11.381839191572585</v>
-      </c>
-      <c r="L15" s="33">
-        <f>K15-N15</f>
-        <v>1.7072758787358886</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="15">
-        <f>VLOOKUP(N11,Tableau3[#All],2,FALSE)*N13</f>
-        <v>9.6745633128366961</v>
-      </c>
-      <c r="R15" s="15">
-        <f>U15/U8</f>
-        <v>9.3445633128366961</v>
-      </c>
-      <c r="S15" s="33">
-        <f>R15-U15</f>
-        <v>0.56067379877020151</v>
-      </c>
-      <c r="T15" s="34"/>
-      <c r="U15" s="15">
-        <f>VLOOKUP(U11,Tableau3[#All],2,FALSE)*U13</f>
-        <v>8.7838895140664945</v>
-      </c>
-      <c r="Z15" s="15">
-        <f>AC15/AC8</f>
-        <v>4.2352941176470589</v>
-      </c>
-      <c r="AA15" s="33">
-        <f>Z15-AC15</f>
-        <v>0.63529411764705923</v>
-      </c>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="15">
-        <f>VLOOKUP(AC11,Tableau3[#All],2,FALSE)*AC13</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AH15" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK15" s="38"/>
-    </row>
-    <row r="16" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI16" s="16">
-        <f>VLOOKUP(AH16,Tableau3[#All],2,FALSE)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AJ16" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH16,Tableau2[Current (mA)])</f>
-        <v>890</v>
-      </c>
-      <c r="AK16" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH17" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="41"/>
-    </row>
-    <row r="18" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z18" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="26"/>
-      <c r="AH18" s="42">
-        <f>AI16*(AJ16/1000)</f>
-        <v>1.335</v>
-      </c>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK18" s="45"/>
-    </row>
-    <row r="19" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z19" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC19" s="19">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="20" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z20" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="Z21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH21" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK21" s="38"/>
-    </row>
-    <row r="22" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI22" s="16">
-        <f>VLOOKUP(AH22,Tableau3[#All],2,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="AJ22" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH22,Tableau2[Current (mA)])</f>
-        <v>50</v>
-      </c>
-      <c r="AK22" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="Z23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH23" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="41"/>
-    </row>
-    <row r="24" spans="5:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="22">
-        <f>SUM(AH6,AH12,AH18,AH24,AH30,AH36,AH59,AH65,AH71,AH77)</f>
-        <v>103.64279999999997</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="20">
-        <f>F24/F25</f>
-        <v>0.95879247027843939</v>
-      </c>
-      <c r="Z24" s="15">
-        <f>Z26/VLOOKUP(Z22,Tableau3[#All],2,FALSE)</f>
-        <v>0.26383399209486164</v>
-      </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC22,Tableau2[Current (mA)])/1000</f>
-        <v>0.89</v>
-      </c>
-      <c r="AH24" s="42">
-        <f>AI22*(AJ22/1000)</f>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK24" s="45"/>
-    </row>
-    <row r="25" spans="5:37" ht="18" x14ac:dyDescent="0.35">
-      <c r="E25" s="21"/>
-      <c r="F25" s="23">
-        <f>SUM(F24,L15,S15,AA15,AA26,AA37,S41,AA48,S59,L64,S70,S85)</f>
-        <v>108.09721938043739</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA25" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z26" s="15">
-        <f>AC26/AC19</f>
-        <v>1.451086956521739</v>
-      </c>
-      <c r="AA26" s="33">
-        <f>Z26-AC26</f>
-        <v>0.11608695652173906</v>
-      </c>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="15">
-        <f>VLOOKUP(AC22,Tableau3[#All],2,FALSE)*AC24</f>
-        <v>1.335</v>
-      </c>
-    </row>
-    <row r="27" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="AH27" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK27" s="38"/>
-    </row>
-    <row r="28" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI28" s="16">
-        <f>VLOOKUP(AH28,Tableau3[#All],2,FALSE)</f>
-        <v>1.8</v>
-      </c>
-      <c r="AJ28" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH28,Tableau2[Current (mA)])</f>
-        <v>680</v>
-      </c>
-      <c r="AK28" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z29" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="26"/>
-      <c r="AH29" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="41"/>
-    </row>
-    <row r="30" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC30" s="19">
-        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="AH30" s="42">
-        <f>AI28*(AJ28/1000)</f>
-        <v>1.2240000000000002</v>
-      </c>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK30" s="45"/>
-    </row>
-    <row r="31" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z31" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="5:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R33" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="26"/>
-      <c r="Z33" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH33" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK33" s="38"/>
-    </row>
-    <row r="34" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R34" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U34" s="19">
-        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="Z34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH34" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI34" s="16">
-        <f>VLOOKUP(AH34,Tableau3[#All],2,FALSE)</f>
-        <v>3.3</v>
-      </c>
-      <c r="AJ34" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH34,Tableau2[Current (mA)])</f>
-        <v>1336</v>
-      </c>
-      <c r="AK34" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R35" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="15">
-        <f>Z37/VLOOKUP(Z33,Tableau3[#All],2,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC33,Tableau2[Current (mA)])/1000</f>
-        <v>0.05</v>
-      </c>
-      <c r="AH35" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="41"/>
-    </row>
-    <row r="36" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R36" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA36" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH36" s="42">
-        <f>AI34*(AJ34/1000)</f>
-        <v>4.4088000000000003</v>
-      </c>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK36" s="45"/>
-    </row>
-    <row r="37" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R37" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z37" s="15">
-        <f>AC37/AC30</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AA37" s="33">
-        <f>Z37-AC37</f>
-        <v>0.1275</v>
-      </c>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="15">
-        <f>VLOOKUP(AC33,Tableau3[#All],2,FALSE)*AC35</f>
-        <v>3.7500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R38" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R39" s="15">
-        <f>R41/VLOOKUP(R37,Tableau3[#All],2,FALSE)</f>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="15">
-        <f>AJ57/1000</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="40" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S40" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T40" s="32"/>
-      <c r="U40" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z40" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="26"/>
-    </row>
-    <row r="41" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R41" s="15">
-        <f>U41/U34</f>
-        <v>0.33</v>
-      </c>
-      <c r="S41" s="33">
-        <f>R41-U41</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="T41" s="34"/>
-      <c r="U41" s="15">
-        <f>VLOOKUP(U37,Tableau3[#All],2,FALSE)*U39</f>
-        <v>0.3</v>
-      </c>
-      <c r="Z41" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC41" s="19">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="42" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z42" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="Z43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z44" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="Z45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z46" s="15">
-        <f>Z48/VLOOKUP(Z44,Tableau3[#All],2,FALSE)</f>
-        <v>0.24189723320158105</v>
-      </c>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AC44,Tableau2[Current (mA)])/1000</f>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="47" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="Z47" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA47" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z48" s="15">
-        <f>AC48/AC41</f>
-        <v>1.3304347826086957</v>
-      </c>
-      <c r="AA48" s="33">
-        <f>Z48-AC48</f>
-        <v>0.10643478260869554</v>
-      </c>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="15">
-        <f>VLOOKUP(AC44,Tableau3[#All],2,FALSE)*AC46</f>
-        <v>1.2240000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R51" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="26"/>
-    </row>
-    <row r="52" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R52" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S52" s="28"/>
-      <c r="T52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U52" s="19">
-        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="53" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R53" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="R54" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R55" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K56" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
-      <c r="R56" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH56" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK56" s="38"/>
-    </row>
-    <row r="57" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K57" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="19">
-        <v>0.65</v>
-      </c>
-      <c r="R57" s="15">
-        <f>R59/VLOOKUP(R55,Tableau3[#All],2,FALSE)</f>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!U55,Tableau2[Current (mA)])/1000</f>
-        <v>0.32</v>
-      </c>
-      <c r="AH57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI57" s="16">
-        <f>VLOOKUP(AH57,Tableau3[#All],2,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="AJ57" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH57,Tableau2[Current (mA)])</f>
-        <v>60</v>
-      </c>
-      <c r="AK57" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K58" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="18">
-        <v>2</v>
-      </c>
-      <c r="R58" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S58" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T58" s="32"/>
-      <c r="U58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH58" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="41"/>
-    </row>
-    <row r="59" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K59" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R59" s="15">
-        <f>U59/U52</f>
-        <v>1.7600000000000002</v>
-      </c>
-      <c r="S59" s="33">
-        <f>R59-U59</f>
-        <v>0.70400000000000018</v>
-      </c>
-      <c r="T59" s="34"/>
-      <c r="U59" s="15">
-        <f>VLOOKUP(U55,Tableau3[#All],2,FALSE)*U57</f>
-        <v>1.056</v>
-      </c>
-      <c r="AH59" s="42">
-        <f>AI57*(AJ57/1000)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK59" s="45"/>
-    </row>
-    <row r="60" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K60" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K61" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K62" s="15">
-        <f>K64/VLOOKUP(K60,Tableau3[#All],2,FALSE)</f>
-        <v>2.6923076923076921E-2</v>
-      </c>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="15">
-        <f>R83</f>
-        <v>0.06</v>
-      </c>
-      <c r="R62" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="26"/>
-      <c r="AH62" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI62" s="36"/>
-      <c r="AJ62" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK62" s="38"/>
-    </row>
-    <row r="63" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L63" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="R63" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S63" s="28"/>
-      <c r="T63" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U63" s="19">
-        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
-        <v>0.6</v>
-      </c>
-      <c r="AH63" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI63" s="16">
-        <f>VLOOKUP(AH63,Tableau3[#All],2,FALSE)</f>
-        <v>3.3</v>
-      </c>
-      <c r="AJ63" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH63,Tableau2[Current (mA)])</f>
-        <v>320</v>
-      </c>
-      <c r="AK63" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="11:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K64" s="15">
-        <f>N64/N57</f>
-        <v>0.64615384615384608</v>
-      </c>
-      <c r="L64" s="33">
-        <f>K64-N64</f>
-        <v>0.22615384615384609</v>
-      </c>
-      <c r="M64" s="34"/>
-      <c r="N64" s="15">
-        <f>VLOOKUP(N60,Tableau3[#All],2,FALSE)*N62*-1</f>
-        <v>0.42</v>
-      </c>
-      <c r="R64" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
-      <c r="AK64" s="41"/>
-    </row>
-    <row r="65" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R65" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH65" s="42">
-        <f>AI63*(AJ63/1000)</f>
-        <v>1.056</v>
-      </c>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK65" s="45"/>
-    </row>
-    <row r="66" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R66" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R67" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R68" s="15">
-        <f>R70/VLOOKUP(R66,Tableau3[#All],2,FALSE)</f>
-        <v>5.5E-2</v>
-      </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="15">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!U66,Tableau2[Current (mA)])/1000</f>
-        <v>5.5E-2</v>
-      </c>
-      <c r="AH68" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI68" s="36"/>
-      <c r="AJ68" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK68" s="38"/>
-    </row>
-    <row r="69" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R69" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S69" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T69" s="32"/>
-      <c r="U69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH69" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI69" s="16">
-        <f>VLOOKUP(AH69,Tableau3[#All],2,FALSE)</f>
-        <v>3.3</v>
-      </c>
-      <c r="AJ69" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH69,Tableau2[Current (mA)])</f>
-        <v>55</v>
-      </c>
-      <c r="AK69" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R70" s="15">
-        <f>U70/U63</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="S70" s="33">
-        <f>R70-U70</f>
-        <v>0.121</v>
-      </c>
-      <c r="T70" s="34"/>
-      <c r="U70" s="15">
-        <f>VLOOKUP(U66,Tableau3[#All],2,FALSE)*U68</f>
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="AH70" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
-      <c r="AK70" s="41"/>
-    </row>
-    <row r="71" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="AH71" s="42">
-        <f>AI69*(AJ69/1000)</f>
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK71" s="45"/>
-    </row>
-    <row r="74" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="AH74" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI74" s="36"/>
-      <c r="AJ74" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK74" s="38"/>
-    </row>
-    <row r="75" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="AH75" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI75" s="16">
-        <f>VLOOKUP(AH75,Tableau3[#All],2,FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="AJ75" s="17">
-        <f>SUMIF(Tableau2[Voltage net list],Feuil3!AH75,Tableau2[Current (mA)])</f>
-        <v>60</v>
-      </c>
-      <c r="AK75" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AH76" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
-      <c r="AK76" s="41"/>
-    </row>
-    <row r="77" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R77" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="26"/>
-      <c r="AH77" s="42">
-        <f>AI75*(AJ75/1000)*-1</f>
-        <v>0.3</v>
-      </c>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK77" s="45"/>
-    </row>
-    <row r="78" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R78" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="S78" s="28"/>
-      <c r="T78" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U78" s="19">
-        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)/VLOOKUP(R81,Tableau3[#All],2,FALSE)</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="79" spans="18:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R79" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="18:37" x14ac:dyDescent="0.3">
-      <c r="R80" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R81" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R82" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R83" s="15">
-        <f>R85/VLOOKUP(R81,Tableau3[#All],2,FALSE)*-1</f>
-        <v>0.06</v>
-      </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="15">
-        <f>AJ75/1000</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="84" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R84" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S84" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="T84" s="32"/>
-      <c r="U84" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R85" s="15">
-        <f>U85/U78</f>
-        <v>0.42</v>
-      </c>
-      <c r="S85" s="33">
-        <f>R85-U85</f>
-        <v>0.12</v>
-      </c>
-      <c r="T85" s="34"/>
-      <c r="U85" s="15">
-        <f>VLOOKUP(U81,Tableau3[#All],2,FALSE)*U83*-1</f>
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="AJ71:AK71"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="Z40:AC40"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AJ59:AK59"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AH76:AK76"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AH70:AK70"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AJ56:AK56"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="AJ68:AK68"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AJ62:AK62"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AJ65:AK65"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-  </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z19:AA19 Z30:AA30 Z8:AA8 R8:S8 R63:S63 R52:S52 Z41:AA41 R34:S34 R78:S78 K8:L8 K57:L57 E8:F8" xr:uid="{D76DEB33-B416-4035-83A1-CD3AB204276A}">
-      <formula1>REG_TYPE</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22 AC22 Z33 AC33 Z11 AC11 R11 U11 R66 U66 R55 U55 Z44 AC44 R37 U37 R81 U81 AH10 AH34 AH16 AH22 AH28 AH57 AH75 AH4 AH63 AH69 K11 N11 K60 N60 E11 H11" xr:uid="{171558F4-673C-494B-85C2-DAD3DB31C89D}">
-      <formula1>V_NET_LIST</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="52" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C7DA35-9B84-4974-8F8E-7E5914C8B918}">
   <dimension ref="C6:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5130,7 +5129,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G7">
@@ -5145,7 +5144,7 @@
       <c r="L7" t="s">
         <v>158</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="26" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5167,7 +5166,7 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G9">
@@ -5178,7 +5177,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G10">
@@ -5195,7 +5194,7 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G11">
@@ -5226,7 +5225,7 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G13">
@@ -5237,7 +5236,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G14">
@@ -5248,7 +5247,7 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G15">
@@ -5288,7 +5287,7 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G17">
@@ -5305,7 +5304,7 @@
       </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G18">
@@ -5316,7 +5315,7 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G19">
@@ -5336,7 +5335,7 @@
       <c r="H20">
         <v>1080</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5344,7 +5343,7 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G21">
@@ -5355,7 +5354,7 @@
       </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G22">
@@ -5366,7 +5365,7 @@
       <c r="E23">
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G23">
@@ -5394,7 +5393,7 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G25">
@@ -5405,7 +5404,7 @@
       </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G26">
@@ -5416,7 +5415,7 @@
       <c r="E27">
         <v>11</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G27">
@@ -5441,7 +5440,7 @@
       <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G29">
@@ -5452,7 +5451,7 @@
       </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G30">
@@ -5463,7 +5462,7 @@
       <c r="E31">
         <v>13</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G31">
@@ -5488,7 +5487,7 @@
       <c r="E33">
         <v>14</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G33">
